--- a/Photodiodesummary.xlsx
+++ b/Photodiodesummary.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewkim/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ansle/Documents/GitHub/undergrad_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C36FBC-A9F2-E44E-9F52-0BBA6DD8D9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75DFE8C-BBCC-8E4E-A1BA-29AFC75E958E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="23260" windowHeight="12580" xr2:uid="{5830AFED-0342-484D-B075-5F067D62BAFD}"/>
+    <workbookView xWindow="31560" yWindow="500" windowWidth="35080" windowHeight="16340" activeTab="2" xr2:uid="{5830AFED-0342-484D-B075-5F067D62BAFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Combined" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -152,7 +153,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +175,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -213,27 +232,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -246,6 +271,1934 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:lvl ptCount="300">
+          <cx:pt idx="0">6</cx:pt>
+          <cx:pt idx="1">4</cx:pt>
+          <cx:pt idx="2">0</cx:pt>
+          <cx:pt idx="3">0</cx:pt>
+          <cx:pt idx="4">4</cx:pt>
+          <cx:pt idx="5">0</cx:pt>
+          <cx:pt idx="6">0</cx:pt>
+          <cx:pt idx="7">0</cx:pt>
+          <cx:pt idx="8">0</cx:pt>
+          <cx:pt idx="9">2</cx:pt>
+          <cx:pt idx="10">0</cx:pt>
+          <cx:pt idx="11">6</cx:pt>
+          <cx:pt idx="12">0</cx:pt>
+          <cx:pt idx="13">0</cx:pt>
+          <cx:pt idx="14">0</cx:pt>
+          <cx:pt idx="15">6</cx:pt>
+          <cx:pt idx="16">8</cx:pt>
+          <cx:pt idx="17">0</cx:pt>
+          <cx:pt idx="18">28</cx:pt>
+          <cx:pt idx="19">0</cx:pt>
+          <cx:pt idx="20">6</cx:pt>
+          <cx:pt idx="21">0</cx:pt>
+          <cx:pt idx="22">0</cx:pt>
+          <cx:pt idx="23">76</cx:pt>
+          <cx:pt idx="24">0</cx:pt>
+          <cx:pt idx="25">0</cx:pt>
+          <cx:pt idx="26">0</cx:pt>
+          <cx:pt idx="27">0</cx:pt>
+          <cx:pt idx="28">12</cx:pt>
+          <cx:pt idx="29">0</cx:pt>
+          <cx:pt idx="30">14</cx:pt>
+          <cx:pt idx="31">0</cx:pt>
+          <cx:pt idx="32">12</cx:pt>
+          <cx:pt idx="33">6</cx:pt>
+          <cx:pt idx="34">0</cx:pt>
+          <cx:pt idx="35">0</cx:pt>
+          <cx:pt idx="36">0</cx:pt>
+          <cx:pt idx="37">0</cx:pt>
+          <cx:pt idx="38">4</cx:pt>
+          <cx:pt idx="39">0</cx:pt>
+          <cx:pt idx="40">0</cx:pt>
+          <cx:pt idx="41">4</cx:pt>
+          <cx:pt idx="42">4</cx:pt>
+          <cx:pt idx="43">0</cx:pt>
+          <cx:pt idx="44">0</cx:pt>
+          <cx:pt idx="45">0</cx:pt>
+          <cx:pt idx="46">0</cx:pt>
+          <cx:pt idx="47">0</cx:pt>
+          <cx:pt idx="48">6</cx:pt>
+          <cx:pt idx="49">0</cx:pt>
+          <cx:pt idx="50">0</cx:pt>
+          <cx:pt idx="51">0</cx:pt>
+          <cx:pt idx="52">0</cx:pt>
+          <cx:pt idx="53">0</cx:pt>
+          <cx:pt idx="54">0</cx:pt>
+          <cx:pt idx="55">32</cx:pt>
+          <cx:pt idx="56">32</cx:pt>
+          <cx:pt idx="57">0</cx:pt>
+          <cx:pt idx="58">2</cx:pt>
+          <cx:pt idx="59">0</cx:pt>
+          <cx:pt idx="60">0</cx:pt>
+          <cx:pt idx="61">0</cx:pt>
+          <cx:pt idx="62">0</cx:pt>
+          <cx:pt idx="63">0</cx:pt>
+          <cx:pt idx="64">10</cx:pt>
+          <cx:pt idx="65">0</cx:pt>
+          <cx:pt idx="66">0</cx:pt>
+          <cx:pt idx="67">0</cx:pt>
+          <cx:pt idx="68">0</cx:pt>
+          <cx:pt idx="69">0</cx:pt>
+          <cx:pt idx="70">0</cx:pt>
+          <cx:pt idx="71">0</cx:pt>
+          <cx:pt idx="72">4</cx:pt>
+          <cx:pt idx="73">0</cx:pt>
+          <cx:pt idx="74">28</cx:pt>
+          <cx:pt idx="75">44</cx:pt>
+          <cx:pt idx="76">28</cx:pt>
+          <cx:pt idx="77">0</cx:pt>
+          <cx:pt idx="78">0</cx:pt>
+          <cx:pt idx="79">10</cx:pt>
+          <cx:pt idx="80">4</cx:pt>
+          <cx:pt idx="81">0</cx:pt>
+          <cx:pt idx="82">4</cx:pt>
+          <cx:pt idx="83">14</cx:pt>
+          <cx:pt idx="84">0</cx:pt>
+          <cx:pt idx="85">0</cx:pt>
+          <cx:pt idx="86">18</cx:pt>
+          <cx:pt idx="87">0</cx:pt>
+          <cx:pt idx="88">12</cx:pt>
+          <cx:pt idx="89">20</cx:pt>
+          <cx:pt idx="90">0</cx:pt>
+          <cx:pt idx="91">12</cx:pt>
+          <cx:pt idx="92">10</cx:pt>
+          <cx:pt idx="93">2</cx:pt>
+          <cx:pt idx="94">2</cx:pt>
+          <cx:pt idx="95">6</cx:pt>
+          <cx:pt idx="96">16</cx:pt>
+          <cx:pt idx="97">2</cx:pt>
+          <cx:pt idx="98">2</cx:pt>
+          <cx:pt idx="99">0</cx:pt>
+          <cx:pt idx="100">8</cx:pt>
+          <cx:pt idx="101">4</cx:pt>
+          <cx:pt idx="102">0</cx:pt>
+          <cx:pt idx="103">0</cx:pt>
+          <cx:pt idx="104">0</cx:pt>
+          <cx:pt idx="105">10</cx:pt>
+          <cx:pt idx="106">0</cx:pt>
+          <cx:pt idx="107">4</cx:pt>
+          <cx:pt idx="108">24</cx:pt>
+          <cx:pt idx="109">4</cx:pt>
+          <cx:pt idx="110">0</cx:pt>
+          <cx:pt idx="111">4</cx:pt>
+          <cx:pt idx="112">0</cx:pt>
+          <cx:pt idx="113">0</cx:pt>
+          <cx:pt idx="114">6</cx:pt>
+          <cx:pt idx="115">10</cx:pt>
+          <cx:pt idx="116">8</cx:pt>
+          <cx:pt idx="117">0</cx:pt>
+          <cx:pt idx="118">12</cx:pt>
+          <cx:pt idx="119">0</cx:pt>
+          <cx:pt idx="120">0</cx:pt>
+          <cx:pt idx="121">0</cx:pt>
+          <cx:pt idx="122">6</cx:pt>
+          <cx:pt idx="123">0</cx:pt>
+          <cx:pt idx="124">0</cx:pt>
+          <cx:pt idx="125">6</cx:pt>
+          <cx:pt idx="126">2</cx:pt>
+          <cx:pt idx="127">0</cx:pt>
+          <cx:pt idx="128">0</cx:pt>
+          <cx:pt idx="129">8</cx:pt>
+          <cx:pt idx="130">4</cx:pt>
+          <cx:pt idx="131">4</cx:pt>
+          <cx:pt idx="132">0</cx:pt>
+          <cx:pt idx="133">6</cx:pt>
+          <cx:pt idx="134">0</cx:pt>
+          <cx:pt idx="135">0</cx:pt>
+          <cx:pt idx="136">0</cx:pt>
+          <cx:pt idx="137">0</cx:pt>
+          <cx:pt idx="138">4</cx:pt>
+          <cx:pt idx="139">0</cx:pt>
+          <cx:pt idx="140">16</cx:pt>
+          <cx:pt idx="141">0</cx:pt>
+          <cx:pt idx="142">0</cx:pt>
+          <cx:pt idx="143">6</cx:pt>
+          <cx:pt idx="144">0</cx:pt>
+          <cx:pt idx="145">0</cx:pt>
+          <cx:pt idx="146">0</cx:pt>
+          <cx:pt idx="147">0</cx:pt>
+          <cx:pt idx="148">0</cx:pt>
+          <cx:pt idx="149">0</cx:pt>
+          <cx:pt idx="150">4</cx:pt>
+          <cx:pt idx="151">0</cx:pt>
+          <cx:pt idx="152">0</cx:pt>
+          <cx:pt idx="153">0</cx:pt>
+          <cx:pt idx="154">4</cx:pt>
+          <cx:pt idx="155">4</cx:pt>
+          <cx:pt idx="156">0</cx:pt>
+          <cx:pt idx="157">12</cx:pt>
+          <cx:pt idx="158">6</cx:pt>
+          <cx:pt idx="159">0</cx:pt>
+          <cx:pt idx="160">0</cx:pt>
+          <cx:pt idx="161">0</cx:pt>
+          <cx:pt idx="162">0</cx:pt>
+          <cx:pt idx="163">6</cx:pt>
+          <cx:pt idx="164">0</cx:pt>
+          <cx:pt idx="165">0</cx:pt>
+          <cx:pt idx="166">0</cx:pt>
+          <cx:pt idx="167">0</cx:pt>
+          <cx:pt idx="168">0</cx:pt>
+          <cx:pt idx="169">6</cx:pt>
+          <cx:pt idx="170">0</cx:pt>
+          <cx:pt idx="171">0</cx:pt>
+          <cx:pt idx="172">2</cx:pt>
+          <cx:pt idx="173">0</cx:pt>
+          <cx:pt idx="174">0</cx:pt>
+          <cx:pt idx="175">0</cx:pt>
+          <cx:pt idx="176">0</cx:pt>
+          <cx:pt idx="177">0</cx:pt>
+          <cx:pt idx="178">0</cx:pt>
+          <cx:pt idx="179">0</cx:pt>
+          <cx:pt idx="180">10</cx:pt>
+          <cx:pt idx="181">8</cx:pt>
+          <cx:pt idx="182">6</cx:pt>
+          <cx:pt idx="183">4</cx:pt>
+          <cx:pt idx="184">0</cx:pt>
+          <cx:pt idx="185">6</cx:pt>
+          <cx:pt idx="186">0</cx:pt>
+          <cx:pt idx="187">4</cx:pt>
+          <cx:pt idx="188">4</cx:pt>
+          <cx:pt idx="189">0</cx:pt>
+          <cx:pt idx="190">0</cx:pt>
+          <cx:pt idx="191">0</cx:pt>
+          <cx:pt idx="192">0</cx:pt>
+          <cx:pt idx="193">0</cx:pt>
+          <cx:pt idx="194">0</cx:pt>
+          <cx:pt idx="195">0</cx:pt>
+          <cx:pt idx="196">0</cx:pt>
+          <cx:pt idx="197">0</cx:pt>
+          <cx:pt idx="198">8</cx:pt>
+          <cx:pt idx="199">0</cx:pt>
+          <cx:pt idx="200">6</cx:pt>
+          <cx:pt idx="201">0</cx:pt>
+          <cx:pt idx="202">2</cx:pt>
+          <cx:pt idx="203">10</cx:pt>
+          <cx:pt idx="204">38</cx:pt>
+          <cx:pt idx="205">16</cx:pt>
+          <cx:pt idx="206">4</cx:pt>
+          <cx:pt idx="207">4</cx:pt>
+          <cx:pt idx="208">8</cx:pt>
+          <cx:pt idx="209">8</cx:pt>
+          <cx:pt idx="210">0</cx:pt>
+          <cx:pt idx="211">0</cx:pt>
+          <cx:pt idx="212">8</cx:pt>
+          <cx:pt idx="213">0</cx:pt>
+          <cx:pt idx="214">14</cx:pt>
+          <cx:pt idx="215">0</cx:pt>
+          <cx:pt idx="216">0</cx:pt>
+          <cx:pt idx="217">4</cx:pt>
+          <cx:pt idx="218">2</cx:pt>
+          <cx:pt idx="219">0</cx:pt>
+          <cx:pt idx="220">0</cx:pt>
+          <cx:pt idx="221">4</cx:pt>
+          <cx:pt idx="222">30</cx:pt>
+          <cx:pt idx="223">6</cx:pt>
+          <cx:pt idx="224">10</cx:pt>
+          <cx:pt idx="225">56</cx:pt>
+          <cx:pt idx="226">8</cx:pt>
+          <cx:pt idx="227">36</cx:pt>
+          <cx:pt idx="228">2</cx:pt>
+          <cx:pt idx="229">14</cx:pt>
+          <cx:pt idx="230">10</cx:pt>
+          <cx:pt idx="231">10</cx:pt>
+          <cx:pt idx="232">18</cx:pt>
+          <cx:pt idx="233">8</cx:pt>
+          <cx:pt idx="234">12</cx:pt>
+          <cx:pt idx="235">12</cx:pt>
+          <cx:pt idx="236">18</cx:pt>
+          <cx:pt idx="237">18</cx:pt>
+          <cx:pt idx="238">0</cx:pt>
+          <cx:pt idx="239">0</cx:pt>
+          <cx:pt idx="240">0</cx:pt>
+          <cx:pt idx="241">0</cx:pt>
+          <cx:pt idx="242">8</cx:pt>
+          <cx:pt idx="243">18</cx:pt>
+          <cx:pt idx="244">12</cx:pt>
+          <cx:pt idx="245">4</cx:pt>
+          <cx:pt idx="246">4</cx:pt>
+          <cx:pt idx="247">0</cx:pt>
+          <cx:pt idx="248">6</cx:pt>
+          <cx:pt idx="249">0</cx:pt>
+          <cx:pt idx="250">0</cx:pt>
+          <cx:pt idx="251">0</cx:pt>
+          <cx:pt idx="252">10</cx:pt>
+          <cx:pt idx="253">2</cx:pt>
+          <cx:pt idx="254">6</cx:pt>
+          <cx:pt idx="255">2</cx:pt>
+          <cx:pt idx="256">0</cx:pt>
+          <cx:pt idx="257">8</cx:pt>
+          <cx:pt idx="258">14</cx:pt>
+          <cx:pt idx="259">0</cx:pt>
+          <cx:pt idx="260">4</cx:pt>
+          <cx:pt idx="261">0</cx:pt>
+          <cx:pt idx="262">10</cx:pt>
+          <cx:pt idx="263">0</cx:pt>
+          <cx:pt idx="264">4</cx:pt>
+          <cx:pt idx="265">0</cx:pt>
+          <cx:pt idx="266">10</cx:pt>
+          <cx:pt idx="267">2</cx:pt>
+          <cx:pt idx="268">0</cx:pt>
+          <cx:pt idx="269">0</cx:pt>
+          <cx:pt idx="270">0</cx:pt>
+          <cx:pt idx="271">8</cx:pt>
+          <cx:pt idx="272">30</cx:pt>
+          <cx:pt idx="273">12</cx:pt>
+          <cx:pt idx="274">0</cx:pt>
+          <cx:pt idx="275">0</cx:pt>
+          <cx:pt idx="276">4</cx:pt>
+          <cx:pt idx="277">2</cx:pt>
+          <cx:pt idx="278">0</cx:pt>
+          <cx:pt idx="279">0</cx:pt>
+          <cx:pt idx="280">0</cx:pt>
+          <cx:pt idx="281">38</cx:pt>
+          <cx:pt idx="282">76</cx:pt>
+          <cx:pt idx="283">2</cx:pt>
+          <cx:pt idx="284">14</cx:pt>
+          <cx:pt idx="285">10</cx:pt>
+          <cx:pt idx="286">2</cx:pt>
+          <cx:pt idx="287">66</cx:pt>
+          <cx:pt idx="288">12</cx:pt>
+          <cx:pt idx="289">18</cx:pt>
+          <cx:pt idx="290">12</cx:pt>
+          <cx:pt idx="291">10</cx:pt>
+          <cx:pt idx="292">8</cx:pt>
+          <cx:pt idx="293">22</cx:pt>
+          <cx:pt idx="294">16</cx:pt>
+          <cx:pt idx="295">6</cx:pt>
+          <cx:pt idx="296">6</cx:pt>
+          <cx:pt idx="297">12</cx:pt>
+          <cx:pt idx="298">14</cx:pt>
+          <cx:pt idx="299">0</cx:pt>
+        </cx:lvl>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>LSL Latencies &lt;10% Average (ms)</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>LSL Latencies &lt;10% Average (ms)</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{988AB620-3E15-784B-A84E-642D48300A73}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:v/>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataPt idx="0">
+            <cx:spPr>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataLabels pos="inBase">
+            <cx:txPr>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:txPr>
+            <cx:visibility seriesName="1" categoryName="0" value="1"/>
+            <cx:separator>, </cx:separator>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r" overflow="25">
+              <cx:binSize val="5"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:valScaling/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:lvl ptCount="300">
+          <cx:pt idx="0">6</cx:pt>
+          <cx:pt idx="1">2</cx:pt>
+          <cx:pt idx="2">0</cx:pt>
+          <cx:pt idx="3">0</cx:pt>
+          <cx:pt idx="4">6</cx:pt>
+          <cx:pt idx="5">0</cx:pt>
+          <cx:pt idx="6">0</cx:pt>
+          <cx:pt idx="7">0</cx:pt>
+          <cx:pt idx="8">0</cx:pt>
+          <cx:pt idx="9">2</cx:pt>
+          <cx:pt idx="10">0</cx:pt>
+          <cx:pt idx="11">6</cx:pt>
+          <cx:pt idx="12">0</cx:pt>
+          <cx:pt idx="13">0</cx:pt>
+          <cx:pt idx="14">0</cx:pt>
+          <cx:pt idx="15">6</cx:pt>
+          <cx:pt idx="16">8</cx:pt>
+          <cx:pt idx="17">0</cx:pt>
+          <cx:pt idx="18">26</cx:pt>
+          <cx:pt idx="19">0</cx:pt>
+          <cx:pt idx="20">6</cx:pt>
+          <cx:pt idx="21">0</cx:pt>
+          <cx:pt idx="22">0</cx:pt>
+          <cx:pt idx="23">76</cx:pt>
+          <cx:pt idx="24">0</cx:pt>
+          <cx:pt idx="25">0</cx:pt>
+          <cx:pt idx="26">0</cx:pt>
+          <cx:pt idx="27">0</cx:pt>
+          <cx:pt idx="28">10</cx:pt>
+          <cx:pt idx="29">0</cx:pt>
+          <cx:pt idx="30">14</cx:pt>
+          <cx:pt idx="31">0</cx:pt>
+          <cx:pt idx="32">12</cx:pt>
+          <cx:pt idx="33">6</cx:pt>
+          <cx:pt idx="34">0</cx:pt>
+          <cx:pt idx="35">0</cx:pt>
+          <cx:pt idx="36">0</cx:pt>
+          <cx:pt idx="37">0</cx:pt>
+          <cx:pt idx="38">4</cx:pt>
+          <cx:pt idx="39">0</cx:pt>
+          <cx:pt idx="40">0</cx:pt>
+          <cx:pt idx="41">6</cx:pt>
+          <cx:pt idx="42">4</cx:pt>
+          <cx:pt idx="43">0</cx:pt>
+          <cx:pt idx="44">0</cx:pt>
+          <cx:pt idx="45">0</cx:pt>
+          <cx:pt idx="46">0</cx:pt>
+          <cx:pt idx="47">0</cx:pt>
+          <cx:pt idx="48">6</cx:pt>
+          <cx:pt idx="49">0</cx:pt>
+          <cx:pt idx="50">0</cx:pt>
+          <cx:pt idx="51">0</cx:pt>
+          <cx:pt idx="52">0</cx:pt>
+          <cx:pt idx="53">0</cx:pt>
+          <cx:pt idx="54">0</cx:pt>
+          <cx:pt idx="55">22</cx:pt>
+          <cx:pt idx="56">48</cx:pt>
+          <cx:pt idx="57">6</cx:pt>
+          <cx:pt idx="58">2</cx:pt>
+          <cx:pt idx="59">0</cx:pt>
+          <cx:pt idx="60">0</cx:pt>
+          <cx:pt idx="61">0</cx:pt>
+          <cx:pt idx="62">0</cx:pt>
+          <cx:pt idx="63">0</cx:pt>
+          <cx:pt idx="64">10</cx:pt>
+          <cx:pt idx="65">0</cx:pt>
+          <cx:pt idx="66">0</cx:pt>
+          <cx:pt idx="67">2</cx:pt>
+          <cx:pt idx="68">0</cx:pt>
+          <cx:pt idx="69">0</cx:pt>
+          <cx:pt idx="70">0</cx:pt>
+          <cx:pt idx="71">0</cx:pt>
+          <cx:pt idx="72">4</cx:pt>
+          <cx:pt idx="73">0</cx:pt>
+          <cx:pt idx="74">28</cx:pt>
+          <cx:pt idx="75">44</cx:pt>
+          <cx:pt idx="76">28</cx:pt>
+          <cx:pt idx="77">0</cx:pt>
+          <cx:pt idx="78">0</cx:pt>
+          <cx:pt idx="79">0</cx:pt>
+          <cx:pt idx="80">4</cx:pt>
+          <cx:pt idx="81">0</cx:pt>
+          <cx:pt idx="82">4</cx:pt>
+          <cx:pt idx="83">4</cx:pt>
+          <cx:pt idx="84">0</cx:pt>
+          <cx:pt idx="85">0</cx:pt>
+          <cx:pt idx="86">18</cx:pt>
+          <cx:pt idx="87">0</cx:pt>
+          <cx:pt idx="88">2</cx:pt>
+          <cx:pt idx="89">20</cx:pt>
+          <cx:pt idx="90">0</cx:pt>
+          <cx:pt idx="91">12</cx:pt>
+          <cx:pt idx="92">10</cx:pt>
+          <cx:pt idx="93">0</cx:pt>
+          <cx:pt idx="94">0</cx:pt>
+          <cx:pt idx="95">6</cx:pt>
+          <cx:pt idx="96">16</cx:pt>
+          <cx:pt idx="97">2</cx:pt>
+          <cx:pt idx="98">2</cx:pt>
+          <cx:pt idx="99">0</cx:pt>
+          <cx:pt idx="100">8</cx:pt>
+          <cx:pt idx="101">4</cx:pt>
+          <cx:pt idx="102">0</cx:pt>
+          <cx:pt idx="103">0</cx:pt>
+          <cx:pt idx="104">0</cx:pt>
+          <cx:pt idx="105">10</cx:pt>
+          <cx:pt idx="106">0</cx:pt>
+          <cx:pt idx="107">4</cx:pt>
+          <cx:pt idx="108">24</cx:pt>
+          <cx:pt idx="109">4</cx:pt>
+          <cx:pt idx="110">0</cx:pt>
+          <cx:pt idx="111">4</cx:pt>
+          <cx:pt idx="112">0</cx:pt>
+          <cx:pt idx="113">0</cx:pt>
+          <cx:pt idx="114">6</cx:pt>
+          <cx:pt idx="115">4</cx:pt>
+          <cx:pt idx="116">0</cx:pt>
+          <cx:pt idx="117">0</cx:pt>
+          <cx:pt idx="118">12</cx:pt>
+          <cx:pt idx="119">0</cx:pt>
+          <cx:pt idx="120">0</cx:pt>
+          <cx:pt idx="121">0</cx:pt>
+          <cx:pt idx="122">6</cx:pt>
+          <cx:pt idx="123">0</cx:pt>
+          <cx:pt idx="124">0</cx:pt>
+          <cx:pt idx="125">6</cx:pt>
+          <cx:pt idx="126">2</cx:pt>
+          <cx:pt idx="127">0</cx:pt>
+          <cx:pt idx="128">0</cx:pt>
+          <cx:pt idx="129">8</cx:pt>
+          <cx:pt idx="130">4</cx:pt>
+          <cx:pt idx="131">4</cx:pt>
+          <cx:pt idx="132">0</cx:pt>
+          <cx:pt idx="133">6</cx:pt>
+          <cx:pt idx="134">0</cx:pt>
+          <cx:pt idx="135">0</cx:pt>
+          <cx:pt idx="136">0</cx:pt>
+          <cx:pt idx="137">0</cx:pt>
+          <cx:pt idx="138">4</cx:pt>
+          <cx:pt idx="139">0</cx:pt>
+          <cx:pt idx="140">16</cx:pt>
+          <cx:pt idx="141">0</cx:pt>
+          <cx:pt idx="142">0</cx:pt>
+          <cx:pt idx="143">6</cx:pt>
+          <cx:pt idx="144">0</cx:pt>
+          <cx:pt idx="145">0</cx:pt>
+          <cx:pt idx="146">6</cx:pt>
+          <cx:pt idx="147">4</cx:pt>
+          <cx:pt idx="148">0</cx:pt>
+          <cx:pt idx="149">8</cx:pt>
+          <cx:pt idx="150">4</cx:pt>
+          <cx:pt idx="151">0</cx:pt>
+          <cx:pt idx="152">0</cx:pt>
+          <cx:pt idx="153">0</cx:pt>
+          <cx:pt idx="154">4</cx:pt>
+          <cx:pt idx="155">4</cx:pt>
+          <cx:pt idx="156">0</cx:pt>
+          <cx:pt idx="157">12</cx:pt>
+          <cx:pt idx="158">6</cx:pt>
+          <cx:pt idx="159">0</cx:pt>
+          <cx:pt idx="160">0</cx:pt>
+          <cx:pt idx="161">0</cx:pt>
+          <cx:pt idx="162">0</cx:pt>
+          <cx:pt idx="163">6</cx:pt>
+          <cx:pt idx="164">0</cx:pt>
+          <cx:pt idx="165">0</cx:pt>
+          <cx:pt idx="166">0</cx:pt>
+          <cx:pt idx="167">0</cx:pt>
+          <cx:pt idx="168">0</cx:pt>
+          <cx:pt idx="169">8</cx:pt>
+          <cx:pt idx="170">0</cx:pt>
+          <cx:pt idx="171">0</cx:pt>
+          <cx:pt idx="172">2</cx:pt>
+          <cx:pt idx="173">0</cx:pt>
+          <cx:pt idx="174">0</cx:pt>
+          <cx:pt idx="175">0</cx:pt>
+          <cx:pt idx="176">0</cx:pt>
+          <cx:pt idx="177">0</cx:pt>
+          <cx:pt idx="178">0</cx:pt>
+          <cx:pt idx="179">0</cx:pt>
+          <cx:pt idx="180">12</cx:pt>
+          <cx:pt idx="181">8</cx:pt>
+          <cx:pt idx="182">6</cx:pt>
+          <cx:pt idx="183">4</cx:pt>
+          <cx:pt idx="184">0</cx:pt>
+          <cx:pt idx="185">6</cx:pt>
+          <cx:pt idx="186">0</cx:pt>
+          <cx:pt idx="187">4</cx:pt>
+          <cx:pt idx="188">4</cx:pt>
+          <cx:pt idx="189">0</cx:pt>
+          <cx:pt idx="190">0</cx:pt>
+          <cx:pt idx="191">0</cx:pt>
+          <cx:pt idx="192">0</cx:pt>
+          <cx:pt idx="193">0</cx:pt>
+          <cx:pt idx="194">0</cx:pt>
+          <cx:pt idx="195">0</cx:pt>
+          <cx:pt idx="196">0</cx:pt>
+          <cx:pt idx="197">0</cx:pt>
+          <cx:pt idx="198">8</cx:pt>
+          <cx:pt idx="199">0</cx:pt>
+          <cx:pt idx="200">6</cx:pt>
+          <cx:pt idx="201">0</cx:pt>
+          <cx:pt idx="202">0</cx:pt>
+          <cx:pt idx="203">8</cx:pt>
+          <cx:pt idx="204">22</cx:pt>
+          <cx:pt idx="205">4</cx:pt>
+          <cx:pt idx="206">2</cx:pt>
+          <cx:pt idx="207">4</cx:pt>
+          <cx:pt idx="208">8</cx:pt>
+          <cx:pt idx="209">8</cx:pt>
+          <cx:pt idx="210">0</cx:pt>
+          <cx:pt idx="211">0</cx:pt>
+          <cx:pt idx="212">8</cx:pt>
+          <cx:pt idx="213">0</cx:pt>
+          <cx:pt idx="214">8</cx:pt>
+          <cx:pt idx="215">0</cx:pt>
+          <cx:pt idx="216">0</cx:pt>
+          <cx:pt idx="217">4</cx:pt>
+          <cx:pt idx="218">2</cx:pt>
+          <cx:pt idx="219">0</cx:pt>
+          <cx:pt idx="220">0</cx:pt>
+          <cx:pt idx="221">2</cx:pt>
+          <cx:pt idx="222">6</cx:pt>
+          <cx:pt idx="223">4</cx:pt>
+          <cx:pt idx="224">8</cx:pt>
+          <cx:pt idx="225">42</cx:pt>
+          <cx:pt idx="226">4</cx:pt>
+          <cx:pt idx="227">36</cx:pt>
+          <cx:pt idx="228">0</cx:pt>
+          <cx:pt idx="229">12</cx:pt>
+          <cx:pt idx="230">8</cx:pt>
+          <cx:pt idx="231">10</cx:pt>
+          <cx:pt idx="232">0</cx:pt>
+          <cx:pt idx="233">4</cx:pt>
+          <cx:pt idx="234">10</cx:pt>
+          <cx:pt idx="235">4</cx:pt>
+          <cx:pt idx="236">16</cx:pt>
+          <cx:pt idx="237">0</cx:pt>
+          <cx:pt idx="238">0</cx:pt>
+          <cx:pt idx="239">0</cx:pt>
+          <cx:pt idx="240">0</cx:pt>
+          <cx:pt idx="241">0</cx:pt>
+          <cx:pt idx="242">8</cx:pt>
+          <cx:pt idx="243">0</cx:pt>
+          <cx:pt idx="244">12</cx:pt>
+          <cx:pt idx="245">4</cx:pt>
+          <cx:pt idx="246">2</cx:pt>
+          <cx:pt idx="247">0</cx:pt>
+          <cx:pt idx="248">6</cx:pt>
+          <cx:pt idx="249">0</cx:pt>
+          <cx:pt idx="250">0</cx:pt>
+          <cx:pt idx="251">0</cx:pt>
+          <cx:pt idx="252">10</cx:pt>
+          <cx:pt idx="253">2</cx:pt>
+          <cx:pt idx="254">6</cx:pt>
+          <cx:pt idx="255">0</cx:pt>
+          <cx:pt idx="256">0</cx:pt>
+          <cx:pt idx="257">8</cx:pt>
+          <cx:pt idx="258">14</cx:pt>
+          <cx:pt idx="259">0</cx:pt>
+          <cx:pt idx="260">4</cx:pt>
+          <cx:pt idx="261">0</cx:pt>
+          <cx:pt idx="262">8</cx:pt>
+          <cx:pt idx="263">0</cx:pt>
+          <cx:pt idx="264">4</cx:pt>
+          <cx:pt idx="265">0</cx:pt>
+          <cx:pt idx="266">10</cx:pt>
+          <cx:pt idx="267">0</cx:pt>
+          <cx:pt idx="268">0</cx:pt>
+          <cx:pt idx="269">0</cx:pt>
+          <cx:pt idx="270">0</cx:pt>
+          <cx:pt idx="271">6</cx:pt>
+          <cx:pt idx="272">30</cx:pt>
+          <cx:pt idx="273">10</cx:pt>
+          <cx:pt idx="274">0</cx:pt>
+          <cx:pt idx="275">0</cx:pt>
+          <cx:pt idx="276">4</cx:pt>
+          <cx:pt idx="277">0</cx:pt>
+          <cx:pt idx="278">0</cx:pt>
+          <cx:pt idx="279">0</cx:pt>
+          <cx:pt idx="280">0</cx:pt>
+          <cx:pt idx="281">38</cx:pt>
+          <cx:pt idx="282">34</cx:pt>
+          <cx:pt idx="283">0</cx:pt>
+          <cx:pt idx="284">12</cx:pt>
+          <cx:pt idx="285">0</cx:pt>
+          <cx:pt idx="286">0</cx:pt>
+          <cx:pt idx="287">24</cx:pt>
+          <cx:pt idx="288">12</cx:pt>
+          <cx:pt idx="289">2</cx:pt>
+          <cx:pt idx="290">12</cx:pt>
+          <cx:pt idx="291">8</cx:pt>
+          <cx:pt idx="292">6</cx:pt>
+          <cx:pt idx="293">4</cx:pt>
+          <cx:pt idx="294">14</cx:pt>
+          <cx:pt idx="295">6</cx:pt>
+          <cx:pt idx="296">4</cx:pt>
+          <cx:pt idx="297">0</cx:pt>
+          <cx:pt idx="298">12</cx:pt>
+          <cx:pt idx="299">0</cx:pt>
+        </cx:lvl>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>LSL Latencies &lt;40% Average (ms)</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>LSL Latencies &lt;40% Average (ms)</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{41FB5AE4-B313-9E48-9A46-C3F5093D9410}">
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </cx:spPr>
+          <cx:dataLabels pos="inBase">
+            <cx:txPr>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:txPr>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r" overflow="25">
+              <cx:binSize val="5"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:valScaling/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -556,6 +2509,911 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7444</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>184188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>179180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51578FA2-F98B-8378-9E77-E07082A862B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3299284" y="5010188"/>
+          <a:ext cx="4595036" cy="188032"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>804752</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="Group 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB1FCF84-A9C2-4631-5058-1E030D492194}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3293626" y="390769"/>
+          <a:ext cx="4921785" cy="3803748"/>
+          <a:chOff x="3291840" y="386080"/>
+          <a:chExt cx="4919552" cy="3759200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+          <xdr:graphicFrame macro="">
+            <xdr:nvGraphicFramePr>
+              <xdr:cNvPr id="2" name="Chart 1">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D9F52CA-E682-0A45-9E3E-A170B44D4DF4}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGraphicFramePr/>
+            </xdr:nvGraphicFramePr>
+            <xdr:xfrm>
+              <a:off x="3291840" y="386080"/>
+              <a:ext cx="4919552" cy="3759200"/>
+            </xdr:xfrm>
+            <a:graphic>
+              <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+                <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+              </a:graphicData>
+            </a:graphic>
+          </xdr:graphicFrame>
+        </mc:Choice>
+        <mc:Fallback>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="0" name=""/>
+              <xdr:cNvSpPr>
+                <a:spLocks noTextEdit="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3291840" y="386080"/>
+                <a:ext cx="4919552" cy="3759200"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:prstClr val="white"/>
+              </a:solidFill>
+              <a:ln w="1">
+                <a:solidFill>
+                  <a:prstClr val="green"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="TextBox 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{655BC3E8-FFEE-A596-4E8B-C762E6C73558}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4572000" y="2987040"/>
+            <a:ext cx="538480" cy="182880"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>84%</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="TextBox 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{887A33D9-9586-9B44-91A0-525176BC9922}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3810000" y="1178560"/>
+            <a:ext cx="538480" cy="182880"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>66%</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="TextBox 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2021D75C-D47B-3844-B7E9-5AE3A17BA598}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5323840" y="3373120"/>
+            <a:ext cx="538480" cy="182880"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>91%</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="TextBox 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F1C4D43-281F-684D-ADB6-91EB1AC8D1CF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6055360" y="3464560"/>
+            <a:ext cx="538480" cy="182880"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>94%</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="TextBox 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C9B1057-218F-5841-81D8-77F41F989CE9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6817360" y="3464560"/>
+            <a:ext cx="538480" cy="182880"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>95%</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="TextBox 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CB22807-5CDA-D446-BBA0-3D3A14F148A7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7528560" y="3444240"/>
+            <a:ext cx="538480" cy="182880"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>100%</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>804752</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>91441</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="Group 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6A78606-AAEB-624B-86D9-2CF09239BE23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3293626" y="6056923"/>
+          <a:ext cx="4921785" cy="3803749"/>
+          <a:chOff x="3291840" y="386080"/>
+          <a:chExt cx="4919552" cy="3759200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+          <xdr:graphicFrame macro="">
+            <xdr:nvGraphicFramePr>
+              <xdr:cNvPr id="13" name="Chart 12">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3434FC34-3EDC-AD97-8DD1-4AAD5E5D99F5}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGraphicFramePr/>
+            </xdr:nvGraphicFramePr>
+            <xdr:xfrm>
+              <a:off x="3291840" y="386080"/>
+              <a:ext cx="4919552" cy="3759200"/>
+            </xdr:xfrm>
+            <a:graphic>
+              <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+                <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+              </a:graphicData>
+            </a:graphic>
+          </xdr:graphicFrame>
+        </mc:Choice>
+        <mc:Fallback>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="0" name=""/>
+              <xdr:cNvSpPr>
+                <a:spLocks noTextEdit="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3291840" y="386080"/>
+                <a:ext cx="4919552" cy="3759200"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:prstClr val="white"/>
+              </a:solidFill>
+              <a:ln w="1">
+                <a:solidFill>
+                  <a:prstClr val="green"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="TextBox 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B27A172F-8E59-2FB9-C272-4886DA7CB191}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4572000" y="2987040"/>
+            <a:ext cx="538480" cy="182880"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>89%</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="TextBox 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1008B68A-EAB0-F124-CD66-CF43AEF08EFC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3796050" y="1013049"/>
+            <a:ext cx="538480" cy="182880"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>71%</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="TextBox 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB815FEE-2E25-880B-1665-E11AB3C09020}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5295940" y="3428290"/>
+            <a:ext cx="538480" cy="182880"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>93%</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="TextBox 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A29D119C-6623-9389-267E-B6FB9A0D9F63}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6055360" y="3464560"/>
+            <a:ext cx="538480" cy="182880"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>95%</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="TextBox 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB65102F-605B-76B4-5E52-E36AF1F0B46E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6817360" y="3464560"/>
+            <a:ext cx="538480" cy="182880"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>96%</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="TextBox 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4AD5AC7-F088-123D-C811-240EC4C627A8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7528560" y="3444240"/>
+            <a:ext cx="538480" cy="182880"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>100%</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -855,26 +3713,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D7C8FF-9064-4DE7-93A2-757384FDF79A}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="111" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
     <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="11"/>
       <c r="K1" t="s">
         <v>16</v>
       </c>
@@ -1014,15 +3873,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EF6954-815C-49C5-8D14-A7F52730AA59}">
-  <dimension ref="A1:KO41"/>
+  <dimension ref="A1:KO44"/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView zoomScale="143" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:301" x14ac:dyDescent="0.2">
@@ -2860,1161 +5721,4689 @@
       </c>
     </row>
     <row r="7" spans="1:301" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:301" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="B7" s="3"/>
     </row>
     <row r="9" spans="1:301" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
         <v>5.64</v>
       </c>
+      <c r="D9">
+        <f>AVERAGE(B5:KO5)</f>
+        <v>5.64</v>
+      </c>
+      <c r="H9" s="9">
+        <f>AVERAGE(B2:CW2)</f>
+        <v>5.22</v>
+      </c>
+      <c r="I9">
+        <f>STDEV(B3:CW3)</f>
+        <v>4.1328934272260254</v>
+      </c>
+      <c r="J9" s="6">
+        <f>CONFIDENCE(0.05,I9,100)</f>
+        <v>0.8100322269305319</v>
+      </c>
+      <c r="K9" s="5">
+        <f>I9+J9</f>
+        <v>4.9429256541565572</v>
+      </c>
+      <c r="L9" s="5">
+        <f>I9-J9</f>
+        <v>3.3228612002954936</v>
+      </c>
     </row>
     <row r="10" spans="1:301" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>0.60955893552234908</v>
       </c>
+      <c r="D10" s="6">
+        <f>STDEV(B5:KO5)</f>
+        <v>10.5578704653231</v>
+      </c>
+      <c r="H10" s="9">
+        <f>AVERAGE(B3:CW3)</f>
+        <v>2.5</v>
+      </c>
+      <c r="I10">
+        <f>STDEV(B4:CW4)</f>
+        <v>13.205447299650187</v>
+      </c>
+      <c r="J10" s="6">
+        <f>CONFIDENCE(0.05,I10,100)</f>
+        <v>2.5882201107056071</v>
+      </c>
+      <c r="K10" s="5">
+        <f>I10+J10</f>
+        <v>15.793667410355795</v>
+      </c>
+      <c r="L10" s="5">
+        <f>I10-J10</f>
+        <v>10.617227188944579</v>
+      </c>
     </row>
     <row r="11" spans="1:301" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4">
-        <v>0</v>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.05</v>
+      </c>
+      <c r="H11" s="9">
+        <f>AVERAGE(B4:CW4)</f>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I11">
+        <f>STDEV(B5:CW5)</f>
+        <v>11.056859473383092</v>
+      </c>
+      <c r="J11" s="6">
+        <f>CONFIDENCE(0.05,I11,100)</f>
+        <v>2.1671046349951362</v>
+      </c>
+      <c r="K11" s="5">
+        <f>I11+J11</f>
+        <v>13.223964108378228</v>
+      </c>
+      <c r="L11" s="5">
+        <f>I11-J11</f>
+        <v>8.8897548383879563</v>
       </c>
     </row>
     <row r="12" spans="1:301" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4">
-        <v>0</v>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f>COUNT(B5:KO5)</f>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:301" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>10.5578704653231</v>
       </c>
+      <c r="D13" s="6">
+        <f>CONFIDENCE(D11,D10,D12)</f>
+        <v>1.1947135600783769</v>
+      </c>
+      <c r="E13" s="5">
+        <f>D9-D13</f>
+        <v>4.445286439921623</v>
+      </c>
+      <c r="F13" s="5">
+        <f>D9+D13</f>
+        <v>6.8347135600783764</v>
+      </c>
     </row>
     <row r="14" spans="1:301" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14">
         <v>111.46862876254181</v>
       </c>
     </row>
     <row r="15" spans="1:301" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15">
         <v>18.110590208907922</v>
       </c>
     </row>
     <row r="16" spans="1:301" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16">
         <v>3.7349617936429742</v>
       </c>
     </row>
     <row r="17" spans="1:301" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17">
         <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:301" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:301" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19">
         <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:301" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20">
         <v>1692</v>
       </c>
     </row>
     <row r="21" spans="1:301" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21">
         <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:301" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="2">
         <v>1.1995691142585165</v>
       </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="24" spans="1:301" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:301" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:301" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>6</v>
+      </c>
+      <c r="B25" s="4">
+        <v>2</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>6</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>2</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
+        <v>6</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0</v>
+      </c>
+      <c r="P25" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>8</v>
+      </c>
+      <c r="R25" s="4">
+        <v>0</v>
+      </c>
+      <c r="S25" s="4">
+        <v>26</v>
+      </c>
+      <c r="T25" s="4">
+        <v>0</v>
+      </c>
+      <c r="U25" s="4">
+        <v>6</v>
+      </c>
+      <c r="V25" s="4">
+        <v>0</v>
+      </c>
+      <c r="W25" s="4">
+        <v>0</v>
+      </c>
+      <c r="X25" s="4">
+        <v>76</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="4">
+        <v>10</v>
+      </c>
+      <c r="AD25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="4">
+        <v>14</v>
+      </c>
+      <c r="AF25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="4">
+        <v>12</v>
+      </c>
+      <c r="AH25" s="4">
+        <v>6</v>
+      </c>
+      <c r="AI25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="4">
+        <v>4</v>
+      </c>
+      <c r="AN25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="4">
+        <v>6</v>
+      </c>
+      <c r="AQ25" s="4">
+        <v>4</v>
+      </c>
+      <c r="AR25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="4">
+        <v>6</v>
+      </c>
+      <c r="AX25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ25" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA25" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB25" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC25" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD25" s="4">
+        <v>22</v>
+      </c>
+      <c r="BE25" s="4">
+        <v>48</v>
+      </c>
+      <c r="BF25" s="4">
+        <v>6</v>
+      </c>
+      <c r="BG25" s="4">
+        <v>2</v>
+      </c>
+      <c r="BH25" s="4">
+        <v>0</v>
+      </c>
+      <c r="BI25" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ25" s="4">
+        <v>0</v>
+      </c>
+      <c r="BK25" s="4">
+        <v>0</v>
+      </c>
+      <c r="BL25" s="4">
+        <v>0</v>
+      </c>
+      <c r="BM25" s="4">
+        <v>10</v>
+      </c>
+      <c r="BN25" s="4">
+        <v>0</v>
+      </c>
+      <c r="BO25" s="4">
+        <v>0</v>
+      </c>
+      <c r="BP25" s="4">
+        <v>2</v>
+      </c>
+      <c r="BQ25" s="4">
+        <v>0</v>
+      </c>
+      <c r="BR25" s="4">
+        <v>0</v>
+      </c>
+      <c r="BS25" s="4">
+        <v>0</v>
+      </c>
+      <c r="BT25" s="4">
+        <v>0</v>
+      </c>
+      <c r="BU25" s="4">
+        <v>4</v>
+      </c>
+      <c r="BV25" s="4">
+        <v>0</v>
+      </c>
+      <c r="BW25" s="4">
+        <v>28</v>
+      </c>
+      <c r="BX25" s="4">
+        <v>44</v>
+      </c>
+      <c r="BY25" s="4">
+        <v>28</v>
+      </c>
+      <c r="BZ25" s="4">
+        <v>0</v>
+      </c>
+      <c r="CA25" s="4">
+        <v>0</v>
+      </c>
+      <c r="CB25" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC25" s="4">
+        <v>4</v>
+      </c>
+      <c r="CD25" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE25" s="4">
+        <v>4</v>
+      </c>
+      <c r="CF25" s="4">
+        <v>4</v>
+      </c>
+      <c r="CG25" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH25" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI25" s="4">
         <v>18</v>
       </c>
-      <c r="B25" s="7">
-        <v>6</v>
-      </c>
-      <c r="C25" s="7">
+      <c r="CJ25" s="4">
+        <v>0</v>
+      </c>
+      <c r="CK25" s="4">
         <v>2</v>
       </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7">
-        <v>6</v>
-      </c>
-      <c r="G25" s="7">
-        <v>0</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7">
-        <v>0</v>
-      </c>
-      <c r="K25" s="7">
+      <c r="CL25" s="4">
+        <v>20</v>
+      </c>
+      <c r="CM25" s="4">
+        <v>0</v>
+      </c>
+      <c r="CN25" s="4">
+        <v>12</v>
+      </c>
+      <c r="CO25" s="4">
+        <v>10</v>
+      </c>
+      <c r="CP25" s="4">
+        <v>0</v>
+      </c>
+      <c r="CQ25" s="4">
+        <v>0</v>
+      </c>
+      <c r="CR25" s="4">
+        <v>6</v>
+      </c>
+      <c r="CS25" s="4">
+        <v>16</v>
+      </c>
+      <c r="CT25" s="4">
         <v>2</v>
       </c>
-      <c r="L25" s="7">
-        <v>0</v>
-      </c>
-      <c r="M25" s="7">
-        <v>6</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7">
-        <v>0</v>
-      </c>
-      <c r="P25" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="7">
-        <v>6</v>
-      </c>
-      <c r="R25" s="7">
+      <c r="CU25" s="4">
+        <v>2</v>
+      </c>
+      <c r="CV25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:301" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
         <v>8</v>
       </c>
-      <c r="S25" s="7">
-        <v>0</v>
-      </c>
-      <c r="T25" s="7">
+      <c r="B26" s="4">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>10</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>4</v>
+      </c>
+      <c r="I26" s="4">
+        <v>24</v>
+      </c>
+      <c r="J26" s="4">
+        <v>4</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
+        <v>4</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0</v>
+      </c>
+      <c r="O26" s="4">
+        <v>6</v>
+      </c>
+      <c r="P26" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>0</v>
+      </c>
+      <c r="R26" s="4">
+        <v>0</v>
+      </c>
+      <c r="S26" s="4">
+        <v>12</v>
+      </c>
+      <c r="T26" s="4">
+        <v>0</v>
+      </c>
+      <c r="U26" s="4">
+        <v>0</v>
+      </c>
+      <c r="V26" s="4">
+        <v>0</v>
+      </c>
+      <c r="W26" s="4">
+        <v>6</v>
+      </c>
+      <c r="X26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>6</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="4">
+        <v>8</v>
+      </c>
+      <c r="AE26" s="4">
+        <v>4</v>
+      </c>
+      <c r="AF26" s="4">
+        <v>4</v>
+      </c>
+      <c r="AG26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="4">
+        <v>6</v>
+      </c>
+      <c r="AI26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="4">
+        <v>4</v>
+      </c>
+      <c r="AN26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="4">
+        <v>16</v>
+      </c>
+      <c r="AP26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="4">
+        <v>6</v>
+      </c>
+      <c r="AS26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="4">
+        <v>6</v>
+      </c>
+      <c r="AV26" s="4">
+        <v>4</v>
+      </c>
+      <c r="AW26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX26" s="4">
+        <v>8</v>
+      </c>
+      <c r="AY26" s="4">
+        <v>4</v>
+      </c>
+      <c r="AZ26" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA26" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB26" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC26" s="4">
+        <v>4</v>
+      </c>
+      <c r="BD26" s="4">
+        <v>4</v>
+      </c>
+      <c r="BE26" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF26" s="4">
+        <v>12</v>
+      </c>
+      <c r="BG26" s="4">
+        <v>6</v>
+      </c>
+      <c r="BH26" s="4">
+        <v>0</v>
+      </c>
+      <c r="BI26" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ26" s="4">
+        <v>0</v>
+      </c>
+      <c r="BK26" s="4">
+        <v>0</v>
+      </c>
+      <c r="BL26" s="4">
+        <v>6</v>
+      </c>
+      <c r="BM26" s="4">
+        <v>0</v>
+      </c>
+      <c r="BN26" s="4">
+        <v>0</v>
+      </c>
+      <c r="BO26" s="4">
+        <v>0</v>
+      </c>
+      <c r="BP26" s="4">
+        <v>0</v>
+      </c>
+      <c r="BQ26" s="4">
+        <v>0</v>
+      </c>
+      <c r="BR26" s="4">
+        <v>8</v>
+      </c>
+      <c r="BS26" s="4">
+        <v>0</v>
+      </c>
+      <c r="BT26" s="4">
+        <v>0</v>
+      </c>
+      <c r="BU26" s="4">
+        <v>2</v>
+      </c>
+      <c r="BV26" s="4">
+        <v>0</v>
+      </c>
+      <c r="BW26" s="4">
+        <v>0</v>
+      </c>
+      <c r="BX26" s="4">
+        <v>0</v>
+      </c>
+      <c r="BY26" s="4">
+        <v>0</v>
+      </c>
+      <c r="BZ26" s="4">
+        <v>0</v>
+      </c>
+      <c r="CA26" s="4">
+        <v>0</v>
+      </c>
+      <c r="CB26" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC26" s="4">
+        <v>12</v>
+      </c>
+      <c r="CD26" s="4">
+        <v>8</v>
+      </c>
+      <c r="CE26" s="4">
+        <v>6</v>
+      </c>
+      <c r="CF26" s="4">
+        <v>4</v>
+      </c>
+      <c r="CG26" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH26" s="4">
+        <v>6</v>
+      </c>
+      <c r="CI26" s="4">
+        <v>0</v>
+      </c>
+      <c r="CJ26" s="4">
+        <v>4</v>
+      </c>
+      <c r="CK26" s="4">
+        <v>4</v>
+      </c>
+      <c r="CL26" s="4">
+        <v>0</v>
+      </c>
+      <c r="CM26" s="4">
+        <v>0</v>
+      </c>
+      <c r="CN26" s="4">
+        <v>0</v>
+      </c>
+      <c r="CO26" s="4">
+        <v>0</v>
+      </c>
+      <c r="CP26" s="4">
+        <v>0</v>
+      </c>
+      <c r="CQ26" s="4">
+        <v>0</v>
+      </c>
+      <c r="CR26" s="4">
+        <v>0</v>
+      </c>
+      <c r="CS26" s="4">
+        <v>0</v>
+      </c>
+      <c r="CT26" s="4">
+        <v>0</v>
+      </c>
+      <c r="CU26" s="4">
+        <v>8</v>
+      </c>
+      <c r="CV26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:301" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>6</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>8</v>
+      </c>
+      <c r="E27" s="4">
+        <v>22</v>
+      </c>
+      <c r="F27" s="4">
+        <v>4</v>
+      </c>
+      <c r="G27" s="4">
+        <v>2</v>
+      </c>
+      <c r="H27" s="4">
+        <v>4</v>
+      </c>
+      <c r="I27" s="4">
+        <v>8</v>
+      </c>
+      <c r="J27" s="4">
+        <v>8</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0</v>
+      </c>
+      <c r="M27" s="4">
+        <v>8</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0</v>
+      </c>
+      <c r="O27" s="4">
+        <v>8</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0</v>
+      </c>
+      <c r="R27" s="4">
+        <v>4</v>
+      </c>
+      <c r="S27" s="4">
+        <v>2</v>
+      </c>
+      <c r="T27" s="4">
+        <v>0</v>
+      </c>
+      <c r="U27" s="4">
+        <v>0</v>
+      </c>
+      <c r="V27" s="4">
+        <v>2</v>
+      </c>
+      <c r="W27" s="4">
+        <v>6</v>
+      </c>
+      <c r="X27" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>8</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>42</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>4</v>
+      </c>
+      <c r="AB27" s="4">
+        <v>36</v>
+      </c>
+      <c r="AC27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="4">
+        <v>12</v>
+      </c>
+      <c r="AE27" s="4">
+        <v>8</v>
+      </c>
+      <c r="AF27" s="4">
+        <v>10</v>
+      </c>
+      <c r="AG27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="4">
+        <v>4</v>
+      </c>
+      <c r="AI27" s="4">
+        <v>10</v>
+      </c>
+      <c r="AJ27" s="4">
+        <v>4</v>
+      </c>
+      <c r="AK27" s="4">
+        <v>16</v>
+      </c>
+      <c r="AL27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="4">
+        <v>8</v>
+      </c>
+      <c r="AR27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="4">
+        <v>12</v>
+      </c>
+      <c r="AT27" s="4">
+        <v>4</v>
+      </c>
+      <c r="AU27" s="4">
+        <v>2</v>
+      </c>
+      <c r="AV27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="4">
+        <v>6</v>
+      </c>
+      <c r="AX27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA27" s="4">
+        <v>10</v>
+      </c>
+      <c r="BB27" s="4">
+        <v>2</v>
+      </c>
+      <c r="BC27" s="4">
+        <v>6</v>
+      </c>
+      <c r="BD27" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE27" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF27" s="4">
+        <v>8</v>
+      </c>
+      <c r="BG27" s="4">
+        <v>14</v>
+      </c>
+      <c r="BH27" s="4">
+        <v>0</v>
+      </c>
+      <c r="BI27" s="4">
+        <v>4</v>
+      </c>
+      <c r="BJ27" s="4">
+        <v>0</v>
+      </c>
+      <c r="BK27" s="4">
+        <v>8</v>
+      </c>
+      <c r="BL27" s="4">
+        <v>0</v>
+      </c>
+      <c r="BM27" s="4">
+        <v>4</v>
+      </c>
+      <c r="BN27" s="4">
+        <v>0</v>
+      </c>
+      <c r="BO27" s="4">
+        <v>10</v>
+      </c>
+      <c r="BP27" s="4">
+        <v>0</v>
+      </c>
+      <c r="BQ27" s="4">
+        <v>0</v>
+      </c>
+      <c r="BR27" s="4">
+        <v>0</v>
+      </c>
+      <c r="BS27" s="4">
+        <v>0</v>
+      </c>
+      <c r="BT27" s="4">
+        <v>6</v>
+      </c>
+      <c r="BU27" s="4">
+        <v>30</v>
+      </c>
+      <c r="BV27" s="4">
+        <v>10</v>
+      </c>
+      <c r="BW27" s="4">
+        <v>0</v>
+      </c>
+      <c r="BX27" s="4">
+        <v>0</v>
+      </c>
+      <c r="BY27" s="4">
+        <v>4</v>
+      </c>
+      <c r="BZ27" s="4">
+        <v>0</v>
+      </c>
+      <c r="CA27" s="4">
+        <v>0</v>
+      </c>
+      <c r="CB27" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC27" s="4">
+        <v>0</v>
+      </c>
+      <c r="CD27" s="4">
+        <v>38</v>
+      </c>
+      <c r="CE27" s="4">
+        <v>34</v>
+      </c>
+      <c r="CF27" s="4">
+        <v>0</v>
+      </c>
+      <c r="CG27" s="4">
+        <v>12</v>
+      </c>
+      <c r="CH27" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI27" s="4">
+        <v>0</v>
+      </c>
+      <c r="CJ27" s="4">
+        <v>24</v>
+      </c>
+      <c r="CK27" s="4">
+        <v>12</v>
+      </c>
+      <c r="CL27" s="4">
+        <v>2</v>
+      </c>
+      <c r="CM27" s="4">
+        <v>12</v>
+      </c>
+      <c r="CN27" s="4">
+        <v>8</v>
+      </c>
+      <c r="CO27" s="4">
+        <v>6</v>
+      </c>
+      <c r="CP27" s="4">
+        <v>4</v>
+      </c>
+      <c r="CQ27" s="4">
+        <v>14</v>
+      </c>
+      <c r="CR27" s="4">
+        <v>6</v>
+      </c>
+      <c r="CS27" s="4">
+        <v>4</v>
+      </c>
+      <c r="CT27" s="4">
+        <v>0</v>
+      </c>
+      <c r="CU27" s="4">
+        <v>12</v>
+      </c>
+      <c r="CV27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:301" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="4">
+        <v>6</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>6</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
+        <v>2</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0</v>
+      </c>
+      <c r="M28" s="4">
+        <v>6</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0</v>
+      </c>
+      <c r="P28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>6</v>
+      </c>
+      <c r="R28" s="4">
+        <v>8</v>
+      </c>
+      <c r="S28" s="4">
+        <v>0</v>
+      </c>
+      <c r="T28" s="4">
         <v>26</v>
       </c>
-      <c r="U25" s="7">
-        <v>0</v>
-      </c>
-      <c r="V25" s="7">
-        <v>6</v>
-      </c>
-      <c r="W25" s="7">
-        <v>0</v>
-      </c>
-      <c r="X25" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="7">
+      <c r="U28" s="4">
+        <v>0</v>
+      </c>
+      <c r="V28" s="4">
+        <v>6</v>
+      </c>
+      <c r="W28" s="4">
+        <v>0</v>
+      </c>
+      <c r="X28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="4">
         <v>76</v>
       </c>
-      <c r="Z25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="7">
+      <c r="Z28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="4">
         <v>10</v>
       </c>
-      <c r="AE25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="7">
+      <c r="AE28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="4">
         <v>14</v>
       </c>
-      <c r="AG25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="7">
+      <c r="AG28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="4">
         <v>12</v>
       </c>
-      <c r="AI25" s="7">
-        <v>6</v>
-      </c>
-      <c r="AJ25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN25" s="7">
-        <v>4</v>
-      </c>
-      <c r="AO25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AP25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AQ25" s="7">
-        <v>6</v>
-      </c>
-      <c r="AR25" s="7">
-        <v>4</v>
-      </c>
-      <c r="AS25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AT25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AU25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AV25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AW25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AX25" s="7">
-        <v>6</v>
-      </c>
-      <c r="AY25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AZ25" s="7">
-        <v>0</v>
-      </c>
-      <c r="BA25" s="7">
-        <v>0</v>
-      </c>
-      <c r="BB25" s="7">
-        <v>0</v>
-      </c>
-      <c r="BC25" s="7">
-        <v>0</v>
-      </c>
-      <c r="BD25" s="7">
-        <v>0</v>
-      </c>
-      <c r="BE25" s="7">
+      <c r="AI28" s="4">
+        <v>6</v>
+      </c>
+      <c r="AJ28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="4">
+        <v>4</v>
+      </c>
+      <c r="AO28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="4">
+        <v>6</v>
+      </c>
+      <c r="AR28" s="4">
+        <v>4</v>
+      </c>
+      <c r="AS28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX28" s="4">
+        <v>6</v>
+      </c>
+      <c r="AY28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA28" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB28" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC28" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD28" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE28" s="4">
         <v>22</v>
       </c>
-      <c r="BF25" s="7">
+      <c r="BF28" s="4">
         <v>48</v>
       </c>
-      <c r="BG25" s="7">
-        <v>6</v>
-      </c>
-      <c r="BH25" s="7">
+      <c r="BG28" s="4">
+        <v>6</v>
+      </c>
+      <c r="BH28" s="4">
         <v>2</v>
       </c>
-      <c r="BI25" s="7">
-        <v>0</v>
-      </c>
-      <c r="BJ25" s="7">
-        <v>0</v>
-      </c>
-      <c r="BK25" s="7">
-        <v>0</v>
-      </c>
-      <c r="BL25" s="7">
-        <v>0</v>
-      </c>
-      <c r="BM25" s="7">
-        <v>0</v>
-      </c>
-      <c r="BN25" s="7">
+      <c r="BI28" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ28" s="4">
+        <v>0</v>
+      </c>
+      <c r="BK28" s="4">
+        <v>0</v>
+      </c>
+      <c r="BL28" s="4">
+        <v>0</v>
+      </c>
+      <c r="BM28" s="4">
+        <v>0</v>
+      </c>
+      <c r="BN28" s="4">
         <v>10</v>
       </c>
-      <c r="BO25" s="7">
-        <v>0</v>
-      </c>
-      <c r="BP25" s="7">
-        <v>0</v>
-      </c>
-      <c r="BQ25" s="7">
+      <c r="BO28" s="4">
+        <v>0</v>
+      </c>
+      <c r="BP28" s="4">
+        <v>0</v>
+      </c>
+      <c r="BQ28" s="4">
         <v>2</v>
       </c>
-      <c r="BR25" s="7">
-        <v>0</v>
-      </c>
-      <c r="BS25" s="7">
-        <v>0</v>
-      </c>
-      <c r="BT25" s="7">
-        <v>0</v>
-      </c>
-      <c r="BU25" s="7">
-        <v>0</v>
-      </c>
-      <c r="BV25" s="7">
-        <v>4</v>
-      </c>
-      <c r="BW25" s="7">
-        <v>0</v>
-      </c>
-      <c r="BX25" s="7">
+      <c r="BR28" s="4">
+        <v>0</v>
+      </c>
+      <c r="BS28" s="4">
+        <v>0</v>
+      </c>
+      <c r="BT28" s="4">
+        <v>0</v>
+      </c>
+      <c r="BU28" s="4">
+        <v>0</v>
+      </c>
+      <c r="BV28" s="4">
+        <v>4</v>
+      </c>
+      <c r="BW28" s="4">
+        <v>0</v>
+      </c>
+      <c r="BX28" s="4">
         <v>28</v>
       </c>
-      <c r="BY25" s="7">
+      <c r="BY28" s="4">
         <v>44</v>
       </c>
-      <c r="BZ25" s="7">
+      <c r="BZ28" s="4">
         <v>28</v>
       </c>
-      <c r="CA25" s="7">
-        <v>0</v>
-      </c>
-      <c r="CB25" s="7">
-        <v>0</v>
-      </c>
-      <c r="CC25" s="7">
-        <v>0</v>
-      </c>
-      <c r="CD25" s="7">
-        <v>4</v>
-      </c>
-      <c r="CE25" s="7">
-        <v>0</v>
-      </c>
-      <c r="CF25" s="7">
-        <v>4</v>
-      </c>
-      <c r="CG25" s="7">
-        <v>4</v>
-      </c>
-      <c r="CH25" s="7">
-        <v>0</v>
-      </c>
-      <c r="CI25" s="7">
-        <v>0</v>
-      </c>
-      <c r="CJ25" s="7">
+      <c r="CA28" s="4">
+        <v>0</v>
+      </c>
+      <c r="CB28" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC28" s="4">
+        <v>0</v>
+      </c>
+      <c r="CD28" s="4">
+        <v>4</v>
+      </c>
+      <c r="CE28" s="4">
+        <v>0</v>
+      </c>
+      <c r="CF28" s="4">
+        <v>4</v>
+      </c>
+      <c r="CG28" s="4">
+        <v>4</v>
+      </c>
+      <c r="CH28" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI28" s="4">
+        <v>0</v>
+      </c>
+      <c r="CJ28" s="4">
         <v>18</v>
       </c>
-      <c r="CK25" s="7">
-        <v>0</v>
-      </c>
-      <c r="CL25" s="7">
+      <c r="CK28" s="4">
+        <v>0</v>
+      </c>
+      <c r="CL28" s="4">
         <v>2</v>
       </c>
-      <c r="CM25" s="7">
+      <c r="CM28" s="4">
         <v>20</v>
       </c>
-      <c r="CN25" s="7">
-        <v>0</v>
-      </c>
-      <c r="CO25" s="7">
+      <c r="CN28" s="4">
+        <v>0</v>
+      </c>
+      <c r="CO28" s="4">
         <v>12</v>
       </c>
-      <c r="CP25" s="7">
+      <c r="CP28" s="4">
         <v>10</v>
       </c>
-      <c r="CQ25" s="7">
-        <v>0</v>
-      </c>
-      <c r="CR25" s="7">
-        <v>0</v>
-      </c>
-      <c r="CS25" s="7">
-        <v>6</v>
-      </c>
-      <c r="CT25" s="7">
+      <c r="CQ28" s="4">
+        <v>0</v>
+      </c>
+      <c r="CR28" s="4">
+        <v>0</v>
+      </c>
+      <c r="CS28" s="4">
+        <v>6</v>
+      </c>
+      <c r="CT28" s="4">
         <v>16</v>
       </c>
-      <c r="CU25" s="7">
+      <c r="CU28" s="4">
         <v>2</v>
       </c>
-      <c r="CV25" s="7">
+      <c r="CV28" s="4">
         <v>2</v>
       </c>
-      <c r="CW25" s="7">
-        <v>0</v>
-      </c>
-      <c r="CX25" s="7">
+      <c r="CW28" s="4">
+        <v>0</v>
+      </c>
+      <c r="CX28" s="4">
         <v>8</v>
       </c>
-      <c r="CY25" s="7">
-        <v>4</v>
-      </c>
-      <c r="CZ25" s="7">
-        <v>0</v>
-      </c>
-      <c r="DA25" s="7">
-        <v>0</v>
-      </c>
-      <c r="DB25" s="7">
-        <v>0</v>
-      </c>
-      <c r="DC25" s="7">
+      <c r="CY28" s="4">
+        <v>4</v>
+      </c>
+      <c r="CZ28" s="4">
+        <v>0</v>
+      </c>
+      <c r="DA28" s="4">
+        <v>0</v>
+      </c>
+      <c r="DB28" s="4">
+        <v>0</v>
+      </c>
+      <c r="DC28" s="4">
         <v>10</v>
       </c>
-      <c r="DD25" s="7">
-        <v>0</v>
-      </c>
-      <c r="DE25" s="7">
-        <v>4</v>
-      </c>
-      <c r="DF25" s="7">
+      <c r="DD28" s="4">
+        <v>0</v>
+      </c>
+      <c r="DE28" s="4">
+        <v>4</v>
+      </c>
+      <c r="DF28" s="4">
         <v>24</v>
       </c>
-      <c r="DG25" s="7">
-        <v>4</v>
-      </c>
-      <c r="DH25" s="7">
-        <v>0</v>
-      </c>
-      <c r="DI25" s="7">
-        <v>4</v>
-      </c>
-      <c r="DJ25" s="7">
-        <v>0</v>
-      </c>
-      <c r="DK25" s="7">
-        <v>0</v>
-      </c>
-      <c r="DL25" s="7">
-        <v>6</v>
-      </c>
-      <c r="DM25" s="7">
-        <v>4</v>
-      </c>
-      <c r="DN25" s="7">
-        <v>0</v>
-      </c>
-      <c r="DO25" s="7">
-        <v>0</v>
-      </c>
-      <c r="DP25" s="7">
+      <c r="DG28" s="4">
+        <v>4</v>
+      </c>
+      <c r="DH28" s="4">
+        <v>0</v>
+      </c>
+      <c r="DI28" s="4">
+        <v>4</v>
+      </c>
+      <c r="DJ28" s="4">
+        <v>0</v>
+      </c>
+      <c r="DK28" s="4">
+        <v>0</v>
+      </c>
+      <c r="DL28" s="4">
+        <v>6</v>
+      </c>
+      <c r="DM28" s="4">
+        <v>4</v>
+      </c>
+      <c r="DN28" s="4">
+        <v>0</v>
+      </c>
+      <c r="DO28" s="4">
+        <v>0</v>
+      </c>
+      <c r="DP28" s="4">
         <v>12</v>
       </c>
-      <c r="DQ25" s="7">
-        <v>0</v>
-      </c>
-      <c r="DR25" s="7">
-        <v>0</v>
-      </c>
-      <c r="DS25" s="7">
-        <v>0</v>
-      </c>
-      <c r="DT25" s="7">
-        <v>6</v>
-      </c>
-      <c r="DU25" s="7">
-        <v>0</v>
-      </c>
-      <c r="DV25" s="7">
-        <v>0</v>
-      </c>
-      <c r="DW25" s="7">
-        <v>6</v>
-      </c>
-      <c r="DX25" s="7">
+      <c r="DQ28" s="4">
+        <v>0</v>
+      </c>
+      <c r="DR28" s="4">
+        <v>0</v>
+      </c>
+      <c r="DS28" s="4">
+        <v>0</v>
+      </c>
+      <c r="DT28" s="4">
+        <v>6</v>
+      </c>
+      <c r="DU28" s="4">
+        <v>0</v>
+      </c>
+      <c r="DV28" s="4">
+        <v>0</v>
+      </c>
+      <c r="DW28" s="4">
+        <v>6</v>
+      </c>
+      <c r="DX28" s="4">
         <v>2</v>
       </c>
-      <c r="DY25" s="7">
-        <v>0</v>
-      </c>
-      <c r="DZ25" s="7">
-        <v>0</v>
-      </c>
-      <c r="EA25" s="7">
+      <c r="DY28" s="4">
+        <v>0</v>
+      </c>
+      <c r="DZ28" s="4">
+        <v>0</v>
+      </c>
+      <c r="EA28" s="4">
         <v>8</v>
       </c>
-      <c r="EB25" s="7">
-        <v>4</v>
-      </c>
-      <c r="EC25" s="7">
-        <v>4</v>
-      </c>
-      <c r="ED25" s="7">
-        <v>0</v>
-      </c>
-      <c r="EE25" s="7">
-        <v>6</v>
-      </c>
-      <c r="EF25" s="7">
-        <v>0</v>
-      </c>
-      <c r="EG25" s="7">
-        <v>0</v>
-      </c>
-      <c r="EH25" s="7">
-        <v>0</v>
-      </c>
-      <c r="EI25" s="7">
-        <v>0</v>
-      </c>
-      <c r="EJ25" s="7">
-        <v>4</v>
-      </c>
-      <c r="EK25" s="7">
-        <v>0</v>
-      </c>
-      <c r="EL25" s="7">
+      <c r="EB28" s="4">
+        <v>4</v>
+      </c>
+      <c r="EC28" s="4">
+        <v>4</v>
+      </c>
+      <c r="ED28" s="4">
+        <v>0</v>
+      </c>
+      <c r="EE28" s="4">
+        <v>6</v>
+      </c>
+      <c r="EF28" s="4">
+        <v>0</v>
+      </c>
+      <c r="EG28" s="4">
+        <v>0</v>
+      </c>
+      <c r="EH28" s="4">
+        <v>0</v>
+      </c>
+      <c r="EI28" s="4">
+        <v>0</v>
+      </c>
+      <c r="EJ28" s="4">
+        <v>4</v>
+      </c>
+      <c r="EK28" s="4">
+        <v>0</v>
+      </c>
+      <c r="EL28" s="4">
         <v>16</v>
       </c>
-      <c r="EM25" s="7">
-        <v>0</v>
-      </c>
-      <c r="EN25" s="7">
-        <v>0</v>
-      </c>
-      <c r="EO25" s="7">
-        <v>6</v>
-      </c>
-      <c r="EP25" s="7">
-        <v>0</v>
-      </c>
-      <c r="EQ25" s="7">
-        <v>0</v>
-      </c>
-      <c r="ER25" s="7">
-        <v>6</v>
-      </c>
-      <c r="ES25" s="7">
-        <v>4</v>
-      </c>
-      <c r="ET25" s="7">
-        <v>0</v>
-      </c>
-      <c r="EU25" s="7">
+      <c r="EM28" s="4">
+        <v>0</v>
+      </c>
+      <c r="EN28" s="4">
+        <v>0</v>
+      </c>
+      <c r="EO28" s="4">
+        <v>6</v>
+      </c>
+      <c r="EP28" s="4">
+        <v>0</v>
+      </c>
+      <c r="EQ28" s="4">
+        <v>0</v>
+      </c>
+      <c r="ER28" s="4">
+        <v>6</v>
+      </c>
+      <c r="ES28" s="4">
+        <v>4</v>
+      </c>
+      <c r="ET28" s="4">
+        <v>0</v>
+      </c>
+      <c r="EU28" s="4">
         <v>8</v>
       </c>
-      <c r="EV25" s="7">
-        <v>4</v>
-      </c>
-      <c r="EW25" s="7">
-        <v>0</v>
-      </c>
-      <c r="EX25" s="7">
-        <v>0</v>
-      </c>
-      <c r="EY25" s="7">
-        <v>0</v>
-      </c>
-      <c r="EZ25" s="7">
-        <v>4</v>
-      </c>
-      <c r="FA25" s="7">
-        <v>4</v>
-      </c>
-      <c r="FB25" s="7">
-        <v>0</v>
-      </c>
-      <c r="FC25" s="7">
+      <c r="EV28" s="4">
+        <v>4</v>
+      </c>
+      <c r="EW28" s="4">
+        <v>0</v>
+      </c>
+      <c r="EX28" s="4">
+        <v>0</v>
+      </c>
+      <c r="EY28" s="4">
+        <v>0</v>
+      </c>
+      <c r="EZ28" s="4">
+        <v>4</v>
+      </c>
+      <c r="FA28" s="4">
+        <v>4</v>
+      </c>
+      <c r="FB28" s="4">
+        <v>0</v>
+      </c>
+      <c r="FC28" s="4">
         <v>12</v>
       </c>
-      <c r="FD25" s="7">
-        <v>6</v>
-      </c>
-      <c r="FE25" s="7">
-        <v>0</v>
-      </c>
-      <c r="FF25" s="7">
-        <v>0</v>
-      </c>
-      <c r="FG25" s="7">
-        <v>0</v>
-      </c>
-      <c r="FH25" s="7">
-        <v>0</v>
-      </c>
-      <c r="FI25" s="7">
-        <v>6</v>
-      </c>
-      <c r="FJ25" s="7">
-        <v>0</v>
-      </c>
-      <c r="FK25" s="7">
-        <v>0</v>
-      </c>
-      <c r="FL25" s="7">
-        <v>0</v>
-      </c>
-      <c r="FM25" s="7">
-        <v>0</v>
-      </c>
-      <c r="FN25" s="7">
-        <v>0</v>
-      </c>
-      <c r="FO25" s="7">
+      <c r="FD28" s="4">
+        <v>6</v>
+      </c>
+      <c r="FE28" s="4">
+        <v>0</v>
+      </c>
+      <c r="FF28" s="4">
+        <v>0</v>
+      </c>
+      <c r="FG28" s="4">
+        <v>0</v>
+      </c>
+      <c r="FH28" s="4">
+        <v>0</v>
+      </c>
+      <c r="FI28" s="4">
+        <v>6</v>
+      </c>
+      <c r="FJ28" s="4">
+        <v>0</v>
+      </c>
+      <c r="FK28" s="4">
+        <v>0</v>
+      </c>
+      <c r="FL28" s="4">
+        <v>0</v>
+      </c>
+      <c r="FM28" s="4">
+        <v>0</v>
+      </c>
+      <c r="FN28" s="4">
+        <v>0</v>
+      </c>
+      <c r="FO28" s="4">
         <v>8</v>
       </c>
-      <c r="FP25" s="7">
-        <v>0</v>
-      </c>
-      <c r="FQ25" s="7">
-        <v>0</v>
-      </c>
-      <c r="FR25" s="7">
+      <c r="FP28" s="4">
+        <v>0</v>
+      </c>
+      <c r="FQ28" s="4">
+        <v>0</v>
+      </c>
+      <c r="FR28" s="4">
         <v>2</v>
       </c>
-      <c r="FS25" s="7">
-        <v>0</v>
-      </c>
-      <c r="FT25" s="7">
-        <v>0</v>
-      </c>
-      <c r="FU25" s="7">
-        <v>0</v>
-      </c>
-      <c r="FV25" s="7">
-        <v>0</v>
-      </c>
-      <c r="FW25" s="7">
-        <v>0</v>
-      </c>
-      <c r="FX25" s="7">
-        <v>0</v>
-      </c>
-      <c r="FY25" s="7">
-        <v>0</v>
-      </c>
-      <c r="FZ25" s="7">
+      <c r="FS28" s="4">
+        <v>0</v>
+      </c>
+      <c r="FT28" s="4">
+        <v>0</v>
+      </c>
+      <c r="FU28" s="4">
+        <v>0</v>
+      </c>
+      <c r="FV28" s="4">
+        <v>0</v>
+      </c>
+      <c r="FW28" s="4">
+        <v>0</v>
+      </c>
+      <c r="FX28" s="4">
+        <v>0</v>
+      </c>
+      <c r="FY28" s="4">
+        <v>0</v>
+      </c>
+      <c r="FZ28" s="4">
         <v>12</v>
       </c>
-      <c r="GA25" s="7">
+      <c r="GA28" s="4">
         <v>8</v>
       </c>
-      <c r="GB25" s="7">
-        <v>6</v>
-      </c>
-      <c r="GC25" s="7">
-        <v>4</v>
-      </c>
-      <c r="GD25" s="7">
-        <v>0</v>
-      </c>
-      <c r="GE25" s="7">
-        <v>6</v>
-      </c>
-      <c r="GF25" s="7">
-        <v>0</v>
-      </c>
-      <c r="GG25" s="7">
-        <v>4</v>
-      </c>
-      <c r="GH25" s="7">
-        <v>4</v>
-      </c>
-      <c r="GI25" s="7">
-        <v>0</v>
-      </c>
-      <c r="GJ25" s="7">
-        <v>0</v>
-      </c>
-      <c r="GK25" s="7">
-        <v>0</v>
-      </c>
-      <c r="GL25" s="7">
-        <v>0</v>
-      </c>
-      <c r="GM25" s="7">
-        <v>0</v>
-      </c>
-      <c r="GN25" s="7">
-        <v>0</v>
-      </c>
-      <c r="GO25" s="7">
-        <v>0</v>
-      </c>
-      <c r="GP25" s="7">
-        <v>0</v>
-      </c>
-      <c r="GQ25" s="7">
-        <v>0</v>
-      </c>
-      <c r="GR25" s="7">
+      <c r="GB28" s="4">
+        <v>6</v>
+      </c>
+      <c r="GC28" s="4">
+        <v>4</v>
+      </c>
+      <c r="GD28" s="4">
+        <v>0</v>
+      </c>
+      <c r="GE28" s="4">
+        <v>6</v>
+      </c>
+      <c r="GF28" s="4">
+        <v>0</v>
+      </c>
+      <c r="GG28" s="4">
+        <v>4</v>
+      </c>
+      <c r="GH28" s="4">
+        <v>4</v>
+      </c>
+      <c r="GI28" s="4">
+        <v>0</v>
+      </c>
+      <c r="GJ28" s="4">
+        <v>0</v>
+      </c>
+      <c r="GK28" s="4">
+        <v>0</v>
+      </c>
+      <c r="GL28" s="4">
+        <v>0</v>
+      </c>
+      <c r="GM28" s="4">
+        <v>0</v>
+      </c>
+      <c r="GN28" s="4">
+        <v>0</v>
+      </c>
+      <c r="GO28" s="4">
+        <v>0</v>
+      </c>
+      <c r="GP28" s="4">
+        <v>0</v>
+      </c>
+      <c r="GQ28" s="4">
+        <v>0</v>
+      </c>
+      <c r="GR28" s="4">
         <v>8</v>
       </c>
-      <c r="GS25" s="7">
-        <v>0</v>
-      </c>
-      <c r="GT25" s="7">
-        <v>6</v>
-      </c>
-      <c r="GU25" s="7">
-        <v>0</v>
-      </c>
-      <c r="GV25" s="7">
-        <v>0</v>
-      </c>
-      <c r="GW25" s="7">
+      <c r="GS28" s="4">
+        <v>0</v>
+      </c>
+      <c r="GT28" s="4">
+        <v>6</v>
+      </c>
+      <c r="GU28" s="4">
+        <v>0</v>
+      </c>
+      <c r="GV28" s="4">
+        <v>0</v>
+      </c>
+      <c r="GW28" s="4">
         <v>8</v>
       </c>
-      <c r="GX25" s="7">
+      <c r="GX28" s="4">
         <v>22</v>
       </c>
-      <c r="GY25" s="7">
-        <v>4</v>
-      </c>
-      <c r="GZ25" s="7">
+      <c r="GY28" s="4">
+        <v>4</v>
+      </c>
+      <c r="GZ28" s="4">
         <v>2</v>
       </c>
-      <c r="HA25" s="7">
-        <v>4</v>
-      </c>
-      <c r="HB25" s="7">
+      <c r="HA28" s="4">
+        <v>4</v>
+      </c>
+      <c r="HB28" s="4">
         <v>8</v>
       </c>
-      <c r="HC25" s="7">
+      <c r="HC28" s="4">
         <v>8</v>
       </c>
-      <c r="HD25" s="7">
-        <v>0</v>
-      </c>
-      <c r="HE25" s="7">
-        <v>0</v>
-      </c>
-      <c r="HF25" s="7">
+      <c r="HD28" s="4">
+        <v>0</v>
+      </c>
+      <c r="HE28" s="4">
+        <v>0</v>
+      </c>
+      <c r="HF28" s="4">
         <v>8</v>
       </c>
-      <c r="HG25" s="7">
-        <v>0</v>
-      </c>
-      <c r="HH25" s="7">
+      <c r="HG28" s="4">
+        <v>0</v>
+      </c>
+      <c r="HH28" s="4">
         <v>8</v>
       </c>
-      <c r="HI25" s="7">
-        <v>0</v>
-      </c>
-      <c r="HJ25" s="7">
-        <v>0</v>
-      </c>
-      <c r="HK25" s="7">
-        <v>4</v>
-      </c>
-      <c r="HL25" s="7">
+      <c r="HI28" s="4">
+        <v>0</v>
+      </c>
+      <c r="HJ28" s="4">
+        <v>0</v>
+      </c>
+      <c r="HK28" s="4">
+        <v>4</v>
+      </c>
+      <c r="HL28" s="4">
         <v>2</v>
       </c>
-      <c r="HM25" s="7">
-        <v>0</v>
-      </c>
-      <c r="HN25" s="7">
-        <v>0</v>
-      </c>
-      <c r="HO25" s="7">
+      <c r="HM28" s="4">
+        <v>0</v>
+      </c>
+      <c r="HN28" s="4">
+        <v>0</v>
+      </c>
+      <c r="HO28" s="4">
         <v>2</v>
       </c>
-      <c r="HP25" s="7">
-        <v>6</v>
-      </c>
-      <c r="HQ25" s="7">
-        <v>4</v>
-      </c>
-      <c r="HR25" s="7">
+      <c r="HP28" s="4">
+        <v>6</v>
+      </c>
+      <c r="HQ28" s="4">
+        <v>4</v>
+      </c>
+      <c r="HR28" s="4">
         <v>8</v>
       </c>
-      <c r="HS25" s="7">
+      <c r="HS28" s="4">
         <v>42</v>
       </c>
-      <c r="HT25" s="7">
-        <v>4</v>
-      </c>
-      <c r="HU25" s="7">
+      <c r="HT28" s="4">
+        <v>4</v>
+      </c>
+      <c r="HU28" s="4">
         <v>36</v>
       </c>
-      <c r="HV25" s="7">
-        <v>0</v>
-      </c>
-      <c r="HW25" s="7">
+      <c r="HV28" s="4">
+        <v>0</v>
+      </c>
+      <c r="HW28" s="4">
         <v>12</v>
       </c>
-      <c r="HX25" s="7">
+      <c r="HX28" s="4">
         <v>8</v>
       </c>
-      <c r="HY25" s="7">
+      <c r="HY28" s="4">
         <v>10</v>
       </c>
-      <c r="HZ25" s="7">
-        <v>0</v>
-      </c>
-      <c r="IA25" s="7">
-        <v>4</v>
-      </c>
-      <c r="IB25" s="7">
+      <c r="HZ28" s="4">
+        <v>0</v>
+      </c>
+      <c r="IA28" s="4">
+        <v>4</v>
+      </c>
+      <c r="IB28" s="4">
         <v>10</v>
       </c>
-      <c r="IC25" s="7">
-        <v>4</v>
-      </c>
-      <c r="ID25" s="7">
+      <c r="IC28" s="4">
+        <v>4</v>
+      </c>
+      <c r="ID28" s="4">
         <v>16</v>
       </c>
-      <c r="IE25" s="7">
-        <v>0</v>
-      </c>
-      <c r="IF25" s="7">
-        <v>0</v>
-      </c>
-      <c r="IG25" s="7">
-        <v>0</v>
-      </c>
-      <c r="IH25" s="7">
-        <v>0</v>
-      </c>
-      <c r="II25" s="7">
-        <v>0</v>
-      </c>
-      <c r="IJ25" s="7">
+      <c r="IE28" s="4">
+        <v>0</v>
+      </c>
+      <c r="IF28" s="4">
+        <v>0</v>
+      </c>
+      <c r="IG28" s="4">
+        <v>0</v>
+      </c>
+      <c r="IH28" s="4">
+        <v>0</v>
+      </c>
+      <c r="II28" s="4">
+        <v>0</v>
+      </c>
+      <c r="IJ28" s="4">
         <v>8</v>
       </c>
-      <c r="IK25" s="7">
-        <v>0</v>
-      </c>
-      <c r="IL25" s="7">
+      <c r="IK28" s="4">
+        <v>0</v>
+      </c>
+      <c r="IL28" s="4">
         <v>12</v>
       </c>
-      <c r="IM25" s="7">
-        <v>4</v>
-      </c>
-      <c r="IN25" s="7">
+      <c r="IM28" s="4">
+        <v>4</v>
+      </c>
+      <c r="IN28" s="4">
         <v>2</v>
       </c>
-      <c r="IO25" s="7">
-        <v>0</v>
-      </c>
-      <c r="IP25" s="7">
-        <v>6</v>
-      </c>
-      <c r="IQ25" s="7">
-        <v>0</v>
-      </c>
-      <c r="IR25" s="7">
-        <v>0</v>
-      </c>
-      <c r="IS25" s="7">
-        <v>0</v>
-      </c>
-      <c r="IT25" s="7">
+      <c r="IO28" s="4">
+        <v>0</v>
+      </c>
+      <c r="IP28" s="4">
+        <v>6</v>
+      </c>
+      <c r="IQ28" s="4">
+        <v>0</v>
+      </c>
+      <c r="IR28" s="4">
+        <v>0</v>
+      </c>
+      <c r="IS28" s="4">
+        <v>0</v>
+      </c>
+      <c r="IT28" s="4">
         <v>10</v>
       </c>
-      <c r="IU25" s="7">
+      <c r="IU28" s="4">
         <v>2</v>
       </c>
-      <c r="IV25" s="7">
-        <v>6</v>
-      </c>
-      <c r="IW25" s="7">
-        <v>0</v>
-      </c>
-      <c r="IX25" s="7">
-        <v>0</v>
-      </c>
-      <c r="IY25" s="7">
+      <c r="IV28" s="4">
+        <v>6</v>
+      </c>
+      <c r="IW28" s="4">
+        <v>0</v>
+      </c>
+      <c r="IX28" s="4">
+        <v>0</v>
+      </c>
+      <c r="IY28" s="4">
         <v>8</v>
       </c>
-      <c r="IZ25" s="7">
+      <c r="IZ28" s="4">
         <v>14</v>
       </c>
-      <c r="JA25" s="7">
-        <v>0</v>
-      </c>
-      <c r="JB25" s="7">
-        <v>4</v>
-      </c>
-      <c r="JC25" s="7">
-        <v>0</v>
-      </c>
-      <c r="JD25" s="7">
+      <c r="JA28" s="4">
+        <v>0</v>
+      </c>
+      <c r="JB28" s="4">
+        <v>4</v>
+      </c>
+      <c r="JC28" s="4">
+        <v>0</v>
+      </c>
+      <c r="JD28" s="4">
         <v>8</v>
       </c>
-      <c r="JE25" s="7">
-        <v>0</v>
-      </c>
-      <c r="JF25" s="7">
-        <v>4</v>
-      </c>
-      <c r="JG25" s="7">
-        <v>0</v>
-      </c>
-      <c r="JH25" s="7">
+      <c r="JE28" s="4">
+        <v>0</v>
+      </c>
+      <c r="JF28" s="4">
+        <v>4</v>
+      </c>
+      <c r="JG28" s="4">
+        <v>0</v>
+      </c>
+      <c r="JH28" s="4">
         <v>10</v>
       </c>
-      <c r="JI25" s="7">
-        <v>0</v>
-      </c>
-      <c r="JJ25" s="7">
-        <v>0</v>
-      </c>
-      <c r="JK25" s="7">
-        <v>0</v>
-      </c>
-      <c r="JL25" s="7">
-        <v>0</v>
-      </c>
-      <c r="JM25" s="7">
-        <v>6</v>
-      </c>
-      <c r="JN25" s="7">
+      <c r="JI28" s="4">
+        <v>0</v>
+      </c>
+      <c r="JJ28" s="4">
+        <v>0</v>
+      </c>
+      <c r="JK28" s="4">
+        <v>0</v>
+      </c>
+      <c r="JL28" s="4">
+        <v>0</v>
+      </c>
+      <c r="JM28" s="4">
+        <v>6</v>
+      </c>
+      <c r="JN28" s="4">
         <v>30</v>
       </c>
-      <c r="JO25" s="7">
+      <c r="JO28" s="4">
         <v>10</v>
       </c>
-      <c r="JP25" s="7">
-        <v>0</v>
-      </c>
-      <c r="JQ25" s="7">
-        <v>0</v>
-      </c>
-      <c r="JR25" s="7">
-        <v>4</v>
-      </c>
-      <c r="JS25" s="7">
-        <v>0</v>
-      </c>
-      <c r="JT25" s="7">
-        <v>0</v>
-      </c>
-      <c r="JU25" s="7">
-        <v>0</v>
-      </c>
-      <c r="JV25" s="7">
-        <v>0</v>
-      </c>
-      <c r="JW25" s="7">
+      <c r="JP28" s="4">
+        <v>0</v>
+      </c>
+      <c r="JQ28" s="4">
+        <v>0</v>
+      </c>
+      <c r="JR28" s="4">
+        <v>4</v>
+      </c>
+      <c r="JS28" s="4">
+        <v>0</v>
+      </c>
+      <c r="JT28" s="4">
+        <v>0</v>
+      </c>
+      <c r="JU28" s="4">
+        <v>0</v>
+      </c>
+      <c r="JV28" s="4">
+        <v>0</v>
+      </c>
+      <c r="JW28" s="4">
         <v>38</v>
       </c>
-      <c r="JX25" s="7">
+      <c r="JX28" s="4">
         <v>34</v>
       </c>
-      <c r="JY25" s="7">
-        <v>0</v>
-      </c>
-      <c r="JZ25" s="7">
+      <c r="JY28" s="4">
+        <v>0</v>
+      </c>
+      <c r="JZ28" s="4">
         <v>12</v>
       </c>
-      <c r="KA25" s="7">
-        <v>0</v>
-      </c>
-      <c r="KB25" s="7">
-        <v>0</v>
-      </c>
-      <c r="KC25" s="7">
+      <c r="KA28" s="4">
+        <v>0</v>
+      </c>
+      <c r="KB28" s="4">
+        <v>0</v>
+      </c>
+      <c r="KC28" s="4">
         <v>24</v>
       </c>
-      <c r="KD25" s="7">
+      <c r="KD28" s="4">
         <v>12</v>
       </c>
-      <c r="KE25" s="7">
+      <c r="KE28" s="4">
         <v>2</v>
       </c>
-      <c r="KF25" s="7">
+      <c r="KF28" s="4">
         <v>12</v>
       </c>
-      <c r="KG25" s="7">
+      <c r="KG28" s="4">
         <v>8</v>
       </c>
-      <c r="KH25" s="7">
-        <v>6</v>
-      </c>
-      <c r="KI25" s="7">
-        <v>4</v>
-      </c>
-      <c r="KJ25" s="7">
+      <c r="KH28" s="4">
+        <v>6</v>
+      </c>
+      <c r="KI28" s="4">
+        <v>4</v>
+      </c>
+      <c r="KJ28" s="4">
         <v>14</v>
       </c>
-      <c r="KK25" s="7">
-        <v>6</v>
-      </c>
-      <c r="KL25" s="7">
-        <v>4</v>
-      </c>
-      <c r="KM25" s="7">
-        <v>0</v>
-      </c>
-      <c r="KN25" s="7">
+      <c r="KK28" s="4">
+        <v>6</v>
+      </c>
+      <c r="KL28" s="4">
+        <v>4</v>
+      </c>
+      <c r="KM28" s="4">
+        <v>0</v>
+      </c>
+      <c r="KN28" s="4">
         <v>12</v>
       </c>
-      <c r="KO25" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:301" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="KO28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:301" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="1:301" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:301" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="4">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="31" spans="1:301" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
         <v>4.4800000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:301" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+    <row r="32" spans="1:301" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B32">
         <v>0.49760720653497431</v>
       </c>
-    </row>
-    <row r="30" spans="1:301" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="D32" s="8">
+        <f>AVERAGE(B28:KO28)</f>
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="H32" s="9">
+        <f>AVERAGE(A25:CV25)</f>
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <f>STDEV(A26:CV26)</f>
+        <v>4.1321112562881748</v>
+      </c>
+      <c r="J32" s="6">
+        <f>CONFIDENCE(0.05,I32,100)</f>
+        <v>0.80987892424373775</v>
+      </c>
+      <c r="K32" s="5">
+        <f>I32+J32</f>
+        <v>4.9419901805319126</v>
+      </c>
+      <c r="L32" s="5">
+        <f>I32-J32</f>
+        <v>3.3222323320444369</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:301" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="D33" s="5">
+        <f>STDEV(B28:KO28)</f>
+        <v>8.6188096393099549</v>
+      </c>
+      <c r="H33" s="9">
+        <f>AVERAGE(A26:CV26)</f>
+        <v>2.58</v>
+      </c>
+      <c r="I33">
+        <f>STDEV(A27:CV27)</f>
+        <v>8.6375033804025012</v>
+      </c>
+      <c r="J33" s="6">
+        <f>CONFIDENCE(0.05,I33,100)</f>
+        <v>1.692919554193187</v>
+      </c>
+      <c r="K33" s="5">
+        <f>I33+J33</f>
+        <v>10.330422934595688</v>
+      </c>
+      <c r="L33" s="5">
+        <f>I33-J33</f>
+        <v>6.944583826209314</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:301" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="H34" s="9">
+        <f>AVERAGE(A27:CV27)</f>
+        <v>5.86</v>
+      </c>
+      <c r="I34">
+        <f>STDEV(A28:CV28)</f>
+        <v>11.307730548190669</v>
+      </c>
+      <c r="J34" s="6">
+        <f>CONFIDENCE(0.05,I34,100)</f>
+        <v>2.2162744621337067</v>
+      </c>
+      <c r="K34" s="5">
+        <f>I34+J34</f>
+        <v>13.524005010324377</v>
+      </c>
+      <c r="L34" s="5">
+        <f>I34-J34</f>
+        <v>9.0914560860569615</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B35">
         <v>8.6188096393099549</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="D35" s="8">
+        <f>COUNT(B28:KO28)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B36">
         <v>74.28387959866221</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="D36" s="5">
+        <f>CONFIDENCE(D34,D33,D35)</f>
+        <v>0.97529220325613364</v>
+      </c>
+      <c r="E36" s="5">
+        <f>D32-D36</f>
+        <v>3.5047077967438667</v>
+      </c>
+      <c r="F36" s="5">
+        <f>D32+D36</f>
+        <v>5.4552922032561337</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B37">
         <v>21.205533251800126</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B38">
         <v>3.8984545161755606</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B39">
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B41">
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B42">
         <v>1344</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B43">
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+    <row r="44" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B44" s="2">
         <v>0.97925598528106295</v>
+      </c>
+      <c r="C44" s="6">
+        <f>B31-(B44/2)</f>
+        <v>3.9903720073594688</v>
+      </c>
+      <c r="D44" s="6">
+        <f>B31+(C43/2)</f>
+        <v>4.4800000000000004</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBCEA1E-8CFD-A144-84F5-53F4A97578CD}">
+  <dimension ref="A1:J300"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="207" workbookViewId="0">
+      <selection activeCell="M52" sqref="M52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>28</v>
+      </c>
+      <c r="B19" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>76</v>
+      </c>
+      <c r="B24" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>12</v>
+      </c>
+      <c r="B29" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>14</v>
+      </c>
+      <c r="B31" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>12</v>
+      </c>
+      <c r="B33" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54" s="4">
+        <v>0</v>
+      </c>
+      <c r="E54" s="7">
+        <f>(212)/300</f>
+        <v>0.70666666666666667</v>
+      </c>
+      <c r="F54" s="7">
+        <f>(212+54)/300</f>
+        <v>0.88666666666666671</v>
+      </c>
+      <c r="G54" s="7">
+        <f>(212+54+14)/300</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="H54" s="7">
+        <f>(212+54+14+5)/300</f>
+        <v>0.95</v>
+      </c>
+      <c r="I54" s="7">
+        <f>(212+54+14+5+4)/300</f>
+        <v>0.96333333333333337</v>
+      </c>
+      <c r="J54" s="7">
+        <f>(212+54+14+5+4+11)/300</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>32</v>
+      </c>
+      <c r="B56" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>32</v>
+      </c>
+      <c r="B57" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>10</v>
+      </c>
+      <c r="B65" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>4</v>
+      </c>
+      <c r="B73" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>28</v>
+      </c>
+      <c r="B75" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>44</v>
+      </c>
+      <c r="B76" s="4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>28</v>
+      </c>
+      <c r="B77" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>10</v>
+      </c>
+      <c r="B80" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>4</v>
+      </c>
+      <c r="B81" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>4</v>
+      </c>
+      <c r="B83" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>14</v>
+      </c>
+      <c r="B84" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>18</v>
+      </c>
+      <c r="B87" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>12</v>
+      </c>
+      <c r="B89" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>20</v>
+      </c>
+      <c r="B90" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>12</v>
+      </c>
+      <c r="B92" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>10</v>
+      </c>
+      <c r="B93" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>2</v>
+      </c>
+      <c r="B94" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="B95" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>6</v>
+      </c>
+      <c r="B96" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>16</v>
+      </c>
+      <c r="B97" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>2</v>
+      </c>
+      <c r="B98" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="B99" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>8</v>
+      </c>
+      <c r="B101" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>4</v>
+      </c>
+      <c r="B102" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>0</v>
+      </c>
+      <c r="B103" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="B104" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>0</v>
+      </c>
+      <c r="B105" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>10</v>
+      </c>
+      <c r="B106" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>0</v>
+      </c>
+      <c r="B107" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>4</v>
+      </c>
+      <c r="B108" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>24</v>
+      </c>
+      <c r="B109" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>4</v>
+      </c>
+      <c r="B110" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>0</v>
+      </c>
+      <c r="B111" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>4</v>
+      </c>
+      <c r="B112" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>0</v>
+      </c>
+      <c r="B113" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>0</v>
+      </c>
+      <c r="B114" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>6</v>
+      </c>
+      <c r="B115" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>10</v>
+      </c>
+      <c r="B116" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>8</v>
+      </c>
+      <c r="B117" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>0</v>
+      </c>
+      <c r="B118" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>12</v>
+      </c>
+      <c r="B119" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>0</v>
+      </c>
+      <c r="B120" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>0</v>
+      </c>
+      <c r="B121" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>0</v>
+      </c>
+      <c r="B122" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>6</v>
+      </c>
+      <c r="B123" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>0</v>
+      </c>
+      <c r="B124" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>0</v>
+      </c>
+      <c r="B125" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>6</v>
+      </c>
+      <c r="B126" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>2</v>
+      </c>
+      <c r="B127" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>0</v>
+      </c>
+      <c r="B128" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>0</v>
+      </c>
+      <c r="B129" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>8</v>
+      </c>
+      <c r="B130" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>4</v>
+      </c>
+      <c r="B131" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>4</v>
+      </c>
+      <c r="B132" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>0</v>
+      </c>
+      <c r="B133" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>6</v>
+      </c>
+      <c r="B134" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>0</v>
+      </c>
+      <c r="B135" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>0</v>
+      </c>
+      <c r="B136" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>0</v>
+      </c>
+      <c r="B137" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>0</v>
+      </c>
+      <c r="B138" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>4</v>
+      </c>
+      <c r="B139" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>0</v>
+      </c>
+      <c r="B140" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>16</v>
+      </c>
+      <c r="B141" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>0</v>
+      </c>
+      <c r="B142" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>0</v>
+      </c>
+      <c r="B143" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>6</v>
+      </c>
+      <c r="B144" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>0</v>
+      </c>
+      <c r="B145" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>0</v>
+      </c>
+      <c r="B146" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>0</v>
+      </c>
+      <c r="B147" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>0</v>
+      </c>
+      <c r="B148" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>0</v>
+      </c>
+      <c r="B149" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>0</v>
+      </c>
+      <c r="B150" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>4</v>
+      </c>
+      <c r="B151" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>0</v>
+      </c>
+      <c r="B152" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>0</v>
+      </c>
+      <c r="B153" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>0</v>
+      </c>
+      <c r="B154" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>4</v>
+      </c>
+      <c r="B155" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>4</v>
+      </c>
+      <c r="B156" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>0</v>
+      </c>
+      <c r="B157" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>12</v>
+      </c>
+      <c r="B158" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>6</v>
+      </c>
+      <c r="B159" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>0</v>
+      </c>
+      <c r="B160" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>0</v>
+      </c>
+      <c r="B161" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>0</v>
+      </c>
+      <c r="B162" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>0</v>
+      </c>
+      <c r="B163" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>6</v>
+      </c>
+      <c r="B164" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>0</v>
+      </c>
+      <c r="B165" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>0</v>
+      </c>
+      <c r="B166" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>0</v>
+      </c>
+      <c r="B167" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>0</v>
+      </c>
+      <c r="B168" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>0</v>
+      </c>
+      <c r="B169" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>6</v>
+      </c>
+      <c r="B170" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>0</v>
+      </c>
+      <c r="B171" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>0</v>
+      </c>
+      <c r="B172" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>2</v>
+      </c>
+      <c r="B173" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>0</v>
+      </c>
+      <c r="B174" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>0</v>
+      </c>
+      <c r="B175" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>0</v>
+      </c>
+      <c r="B176" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>0</v>
+      </c>
+      <c r="B177" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>0</v>
+      </c>
+      <c r="B178" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>0</v>
+      </c>
+      <c r="B179" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>0</v>
+      </c>
+      <c r="B180" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>10</v>
+      </c>
+      <c r="B181" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>8</v>
+      </c>
+      <c r="B182" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>6</v>
+      </c>
+      <c r="B183" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>4</v>
+      </c>
+      <c r="B184" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>0</v>
+      </c>
+      <c r="B185" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>6</v>
+      </c>
+      <c r="B186" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>0</v>
+      </c>
+      <c r="B187" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>4</v>
+      </c>
+      <c r="B188" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>4</v>
+      </c>
+      <c r="B189" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>0</v>
+      </c>
+      <c r="B190" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>0</v>
+      </c>
+      <c r="B191" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>0</v>
+      </c>
+      <c r="B192" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>0</v>
+      </c>
+      <c r="B193" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>0</v>
+      </c>
+      <c r="B194" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>0</v>
+      </c>
+      <c r="B195" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>0</v>
+      </c>
+      <c r="B196" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>0</v>
+      </c>
+      <c r="B197" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>0</v>
+      </c>
+      <c r="B198" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>8</v>
+      </c>
+      <c r="B199" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>0</v>
+      </c>
+      <c r="B200" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>6</v>
+      </c>
+      <c r="B201" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>0</v>
+      </c>
+      <c r="B202" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>2</v>
+      </c>
+      <c r="B203" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>10</v>
+      </c>
+      <c r="B204" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>38</v>
+      </c>
+      <c r="B205" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>16</v>
+      </c>
+      <c r="B206" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>4</v>
+      </c>
+      <c r="B207" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>4</v>
+      </c>
+      <c r="B208" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>8</v>
+      </c>
+      <c r="B209" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>8</v>
+      </c>
+      <c r="B210" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>0</v>
+      </c>
+      <c r="B211" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>0</v>
+      </c>
+      <c r="B212" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>8</v>
+      </c>
+      <c r="B213" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>0</v>
+      </c>
+      <c r="B214" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>14</v>
+      </c>
+      <c r="B215" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>0</v>
+      </c>
+      <c r="B216" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>0</v>
+      </c>
+      <c r="B217" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>4</v>
+      </c>
+      <c r="B218" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>2</v>
+      </c>
+      <c r="B219" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>0</v>
+      </c>
+      <c r="B220" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>0</v>
+      </c>
+      <c r="B221" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>4</v>
+      </c>
+      <c r="B222" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>30</v>
+      </c>
+      <c r="B223" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>6</v>
+      </c>
+      <c r="B224" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>10</v>
+      </c>
+      <c r="B225" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>56</v>
+      </c>
+      <c r="B226" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>8</v>
+      </c>
+      <c r="B227" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>36</v>
+      </c>
+      <c r="B228" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>2</v>
+      </c>
+      <c r="B229" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>14</v>
+      </c>
+      <c r="B230" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>10</v>
+      </c>
+      <c r="B231" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>10</v>
+      </c>
+      <c r="B232" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>18</v>
+      </c>
+      <c r="B233" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>8</v>
+      </c>
+      <c r="B234" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>12</v>
+      </c>
+      <c r="B235" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>12</v>
+      </c>
+      <c r="B236" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>18</v>
+      </c>
+      <c r="B237" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>18</v>
+      </c>
+      <c r="B238" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>0</v>
+      </c>
+      <c r="B239" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>0</v>
+      </c>
+      <c r="B240" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>0</v>
+      </c>
+      <c r="B241" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>0</v>
+      </c>
+      <c r="B242" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>8</v>
+      </c>
+      <c r="B243" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>18</v>
+      </c>
+      <c r="B244" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>12</v>
+      </c>
+      <c r="B245" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>4</v>
+      </c>
+      <c r="B246" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>4</v>
+      </c>
+      <c r="B247" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>0</v>
+      </c>
+      <c r="B248" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>6</v>
+      </c>
+      <c r="B249" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>0</v>
+      </c>
+      <c r="B250" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>0</v>
+      </c>
+      <c r="B251" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>0</v>
+      </c>
+      <c r="B252" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>10</v>
+      </c>
+      <c r="B253" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>2</v>
+      </c>
+      <c r="B254" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>6</v>
+      </c>
+      <c r="B255" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>2</v>
+      </c>
+      <c r="B256" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>0</v>
+      </c>
+      <c r="B257" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>8</v>
+      </c>
+      <c r="B258" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>14</v>
+      </c>
+      <c r="B259" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>0</v>
+      </c>
+      <c r="B260" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>4</v>
+      </c>
+      <c r="B261" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>0</v>
+      </c>
+      <c r="B262" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>10</v>
+      </c>
+      <c r="B263" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>0</v>
+      </c>
+      <c r="B264" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>4</v>
+      </c>
+      <c r="B265" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>0</v>
+      </c>
+      <c r="B266" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>10</v>
+      </c>
+      <c r="B267" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>2</v>
+      </c>
+      <c r="B268" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>0</v>
+      </c>
+      <c r="B269" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>0</v>
+      </c>
+      <c r="B270" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>0</v>
+      </c>
+      <c r="B271" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>8</v>
+      </c>
+      <c r="B272" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>30</v>
+      </c>
+      <c r="B273" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>12</v>
+      </c>
+      <c r="B274" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>0</v>
+      </c>
+      <c r="B275" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>0</v>
+      </c>
+      <c r="B276" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>4</v>
+      </c>
+      <c r="B277" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>2</v>
+      </c>
+      <c r="B278" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>0</v>
+      </c>
+      <c r="B279" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>0</v>
+      </c>
+      <c r="B280" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>0</v>
+      </c>
+      <c r="B281" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>38</v>
+      </c>
+      <c r="B282" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>76</v>
+      </c>
+      <c r="B283" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>2</v>
+      </c>
+      <c r="B284" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>14</v>
+      </c>
+      <c r="B285" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>10</v>
+      </c>
+      <c r="B286" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>2</v>
+      </c>
+      <c r="B287" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>66</v>
+      </c>
+      <c r="B288" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>12</v>
+      </c>
+      <c r="B289" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>18</v>
+      </c>
+      <c r="B290" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>12</v>
+      </c>
+      <c r="B291" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>10</v>
+      </c>
+      <c r="B292" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>8</v>
+      </c>
+      <c r="B293" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>22</v>
+      </c>
+      <c r="B294" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>16</v>
+      </c>
+      <c r="B295" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>6</v>
+      </c>
+      <c r="B296" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>6</v>
+      </c>
+      <c r="B297" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>12</v>
+      </c>
+      <c r="B298" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>14</v>
+      </c>
+      <c r="B299" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>0</v>
+      </c>
+      <c r="B300" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>